--- a/wikiwho/tests/test_wikiwho_simple.xlsx
+++ b/wikiwho/tests/test_wikiwho_simple.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="757">
   <si>
     <t>Article</t>
   </si>
@@ -77,7 +77,7 @@
     <t>353535318</t>
   </si>
   <si>
-    <t>]]</t>
+    <t>]] → ]</t>
   </si>
   <si>
     <t>custom-designed [[gate array]] to generate</t>
@@ -185,7 +185,7 @@
     <t>49493998</t>
   </si>
   <si>
-    <t>Mankind"</t>
+    <t>Mankind" → Mankind</t>
   </si>
   <si>
     <t>Archive short film|id=gov.archives.arc.7500|name="Apollo 11: One Giant Leap for Mankind"}}</t>
@@ -662,7 +662,7 @@
     <t>349346698</t>
   </si>
   <si>
-    <t>[[</t>
+    <t>[[ → [</t>
   </si>
   <si>
     <t>(40): "[[Aristoxenus]] in his</t>
@@ -734,7 +734,7 @@
     <t>573020570</t>
   </si>
   <si>
-    <t>}}</t>
+    <t>}} → }</t>
   </si>
   <si>
     <t>{{Reflist}}</t>
@@ -1510,6 +1510,9 @@
     <t>anthropoid primates due to a slight difference in the</t>
   </si>
   <si>
+    <t>[[</t>
+  </si>
+  <si>
     <t>enclosures have been observed eating [[poison</t>
   </si>
   <si>
@@ -1543,6 +1546,9 @@
     <t>464580094</t>
   </si>
   <si>
+    <t>]]</t>
+  </si>
+  <si>
     <t>The church gained autonomy from the [[Serbian Orthodox Church]]</t>
   </si>
   <si>
@@ -1597,7 +1603,7 @@
     <t>481126024</t>
   </si>
   <si>
-    <t>/&gt;</t>
+    <t>/&gt; → /</t>
   </si>
   <si>
     <t>during Muhammad's early lifetime.&lt;ref name="EoI-Muhammad"/&gt;</t>
@@ -1970,7 +1976,7 @@
     <t>181667862</t>
   </si>
   <si>
-    <t>{{</t>
+    <t>{{ → {</t>
   </si>
   <si>
     <t>==References== {{reflist}}</t>
@@ -2042,7 +2048,7 @@
     <t>351942186</t>
   </si>
   <si>
-    <t>&lt;/</t>
+    <t>&lt;/ → /</t>
   </si>
   <si>
     <t>| 'B' Squadron&lt;ref&gt;Fremont-Barnes, p.4&lt;/ref&gt;</t>
@@ -2111,7 +2117,7 @@
     <t>287529321</t>
   </si>
   <si>
-    <t>party's</t>
+    <t>Party's → party</t>
   </si>
   <si>
     <t>the party's racism. Many leaders of German</t>
@@ -2418,7 +2424,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2435,16 +2441,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2496,10 +2494,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2600,10 +2594,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M241"/>
+  <dimension ref="1:241"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2614,7 +2608,7 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2295918367347"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.280612244898"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8061224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4642857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2295918367347"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7448979591837"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.0714285714286"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.015306122449"/>
@@ -2624,7 +2618,7 @@
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2643,22 +2637,19 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="5"/>
+      <c r="L1" s="4"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2667,24 +2658,23 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2693,25 +2683,24 @@
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2720,51 +2709,49 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2773,24 +2760,23 @@
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2799,24 +2785,23 @@
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2825,50 +2810,47 @@
       <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2877,24 +2859,23 @@
       <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2903,25 +2884,24 @@
       <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2930,24 +2910,23 @@
       <c r="E12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2956,24 +2935,23 @@
       <c r="E13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2982,24 +2960,23 @@
       <c r="E14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -3008,11 +2985,10 @@
       <c r="E15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -3022,10 +2998,10 @@
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -3034,21 +3010,22 @@
       <c r="E16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="5"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -3057,24 +3034,23 @@
       <c r="E17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -3083,24 +3059,23 @@
       <c r="E18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -3109,24 +3084,23 @@
       <c r="E19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -3135,24 +3109,23 @@
       <c r="E20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -3161,24 +3134,23 @@
       <c r="E21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -3187,24 +3159,23 @@
       <c r="E22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -3213,24 +3184,23 @@
       <c r="E23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -3239,77 +3209,76 @@
       <c r="E24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+    <row r="25" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="12"/>
-    </row>
-    <row r="26" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="0"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="10"/>
+      <c r="AMJ25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -3318,24 +3287,23 @@
       <c r="E27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -3344,24 +3312,23 @@
       <c r="E28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -3370,24 +3337,23 @@
       <c r="E29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -3396,50 +3362,50 @@
       <c r="E30" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
+    <row r="31" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-    </row>
-    <row r="32" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="0"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="AMJ31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -3448,24 +3414,23 @@
       <c r="E32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="H32" s="5"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -3474,24 +3439,23 @@
       <c r="E33" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -3500,24 +3464,23 @@
       <c r="E34" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="H34" s="5"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -3526,50 +3489,48 @@
       <c r="E35" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="H35" s="5"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="5"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -3578,24 +3539,23 @@
       <c r="E37" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="H37" s="5"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -3604,50 +3564,48 @@
       <c r="E38" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="H38" s="5"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>132</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="H39" s="5"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -3656,24 +3614,23 @@
       <c r="E40" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="H40" s="5"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -3682,11 +3639,10 @@
       <c r="E41" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="H41" s="5"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -3696,10 +3652,10 @@
       <c r="A42" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -3708,24 +3664,25 @@
       <c r="E42" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-    </row>
-    <row r="43" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G42" s="0"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="AMJ42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -3734,11 +3691,10 @@
       <c r="E43" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="H43" s="5"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -3748,10 +3704,10 @@
       <c r="A44" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>148</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -3760,24 +3716,25 @@
       <c r="E44" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-    </row>
-    <row r="45" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G44" s="0"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="AMJ44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="5" t="s">
         <v>148</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -3786,25 +3743,24 @@
       <c r="E45" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="5" t="s">
         <v>148</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -3813,24 +3769,23 @@
       <c r="E46" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="H46" s="5"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>148</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -3839,24 +3794,23 @@
       <c r="E47" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="H47" s="5"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>148</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -3865,24 +3819,23 @@
       <c r="E48" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="H48" s="5"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="5" t="s">
         <v>166</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -3891,11 +3844,10 @@
       <c r="E49" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
+      <c r="H49" s="5"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -3905,10 +3857,10 @@
       <c r="A50" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="5" t="s">
         <v>166</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -3917,24 +3869,25 @@
       <c r="E50" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-    </row>
-    <row r="51" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G50" s="0"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="AMJ50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="5" t="s">
         <v>166</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -3943,51 +3896,49 @@
       <c r="E51" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
+      <c r="H51" s="5"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="5" t="s">
         <v>166</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+      <c r="H52" s="5"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="5" t="s">
         <v>166</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -3996,24 +3947,23 @@
       <c r="E53" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
+      <c r="H53" s="5"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="5" t="s">
         <v>166</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -4022,24 +3972,23 @@
       <c r="E54" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
+      <c r="H54" s="5"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="5" t="s">
         <v>185</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -4048,24 +3997,23 @@
       <c r="E55" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
+      <c r="H55" s="5"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="5" t="s">
         <v>185</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -4074,24 +4022,23 @@
       <c r="E56" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
+      <c r="H56" s="5"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="5" t="s">
         <v>185</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -4100,24 +4047,23 @@
       <c r="E57" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
+      <c r="H57" s="5"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="5" t="s">
         <v>185</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -4126,24 +4072,23 @@
       <c r="E58" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
+      <c r="H58" s="5"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -4152,24 +4097,23 @@
       <c r="E59" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
+      <c r="H59" s="5"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -4178,24 +4122,23 @@
       <c r="E60" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
+      <c r="H60" s="5"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -4204,24 +4147,23 @@
       <c r="E61" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
+      <c r="H61" s="5"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -4230,24 +4172,23 @@
       <c r="E62" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
+      <c r="H62" s="5"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -4256,24 +4197,23 @@
       <c r="E63" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
+      <c r="H63" s="5"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="5" t="s">
         <v>200</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -4282,24 +4222,23 @@
       <c r="E64" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+      <c r="H64" s="5"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="5" t="s">
         <v>220</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -4308,11 +4247,10 @@
       <c r="E65" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="H65" s="5"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -4322,10 +4260,10 @@
       <c r="A66" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="5" t="s">
         <v>220</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -4334,24 +4272,25 @@
       <c r="E66" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-    </row>
-    <row r="67" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G66" s="0"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="AMJ66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="5" t="s">
         <v>220</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -4360,24 +4299,23 @@
       <c r="E67" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
+      <c r="H67" s="5"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="5" t="s">
         <v>220</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -4386,24 +4324,23 @@
       <c r="E68" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
+      <c r="H68" s="5"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="5" t="s">
         <v>220</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -4412,24 +4349,23 @@
       <c r="E69" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
+      <c r="H69" s="5"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="5" t="s">
         <v>238</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -4438,24 +4374,23 @@
       <c r="E70" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="5" t="s">
         <v>238</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -4464,24 +4399,23 @@
       <c r="E71" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
+      <c r="H71" s="5"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="5" t="s">
         <v>238</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -4490,24 +4424,23 @@
       <c r="E72" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
+      <c r="H72" s="5"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="5" t="s">
         <v>238</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -4516,24 +4449,23 @@
       <c r="E73" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
+      <c r="H73" s="5"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="5" t="s">
         <v>238</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -4542,24 +4474,23 @@
       <c r="E74" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
+      <c r="H74" s="5"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="5" t="s">
         <v>238</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -4568,24 +4499,23 @@
       <c r="E75" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
+      <c r="H75" s="5"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="5" t="s">
         <v>259</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -4594,50 +4524,48 @@
       <c r="E76" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
+      <c r="H76" s="5"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="13" t="s">
         <v>262</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
+      <c r="H77" s="5"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="5" t="s">
         <v>259</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -4646,24 +4574,23 @@
       <c r="E78" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
+      <c r="H78" s="5"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="5" t="s">
         <v>259</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -4672,24 +4599,23 @@
       <c r="E79" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
+      <c r="H79" s="5"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="5" t="s">
         <v>259</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -4698,24 +4624,23 @@
       <c r="E80" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
+      <c r="H80" s="5"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="5" t="s">
         <v>259</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -4724,24 +4649,23 @@
       <c r="E81" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
+      <c r="H81" s="5"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="5" t="s">
         <v>277</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -4750,24 +4674,23 @@
       <c r="E82" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
+      <c r="H82" s="5"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="5" t="s">
         <v>277</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -4776,11 +4699,10 @@
       <c r="E83" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
+      <c r="H83" s="5"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
@@ -4790,10 +4712,10 @@
       <c r="A84" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="5" t="s">
         <v>277</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -4802,25 +4724,26 @@
       <c r="E84" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="8"/>
-    </row>
-    <row r="85" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G84" s="0"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="6"/>
+      <c r="AMJ84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="5" t="s">
         <v>277</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -4829,24 +4752,23 @@
       <c r="E85" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
+      <c r="H85" s="5"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="5" t="s">
         <v>277</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -4855,24 +4777,23 @@
       <c r="E86" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
+      <c r="H86" s="5"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="5" t="s">
         <v>277</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -4881,24 +4802,23 @@
       <c r="E87" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
+      <c r="H87" s="5"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="5" t="s">
         <v>293</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -4907,50 +4827,48 @@
       <c r="E88" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
+      <c r="H88" s="5"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="5" t="s">
         <v>297</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
+      <c r="H89" s="5"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="5" t="s">
         <v>293</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -4959,24 +4877,23 @@
       <c r="E90" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
+      <c r="H90" s="5"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="5" t="s">
         <v>293</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -4985,24 +4902,23 @@
       <c r="E91" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
+      <c r="H91" s="5"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="5" t="s">
         <v>293</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -5011,24 +4927,23 @@
       <c r="E92" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
+      <c r="H92" s="5"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="5" t="s">
         <v>293</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -5037,24 +4952,23 @@
       <c r="E93" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
+      <c r="H93" s="5"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -5063,24 +4977,23 @@
       <c r="E94" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
+      <c r="H94" s="5"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -5089,25 +5002,24 @@
       <c r="E95" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
+      <c r="H95" s="5"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="3"/>
     </row>
-    <row r="96" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -5116,24 +5028,23 @@
       <c r="E96" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
+      <c r="H96" s="5"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -5142,24 +5053,23 @@
       <c r="E97" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F97" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
+      <c r="H97" s="5"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -5168,24 +5078,23 @@
       <c r="E98" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
+      <c r="H98" s="5"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -5194,24 +5103,23 @@
       <c r="E99" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
+      <c r="H99" s="5"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="5" t="s">
         <v>331</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -5220,24 +5128,23 @@
       <c r="E100" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
+      <c r="H100" s="5"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="5" t="s">
         <v>331</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -5246,24 +5153,23 @@
       <c r="E101" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
+      <c r="H101" s="5"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="5" t="s">
         <v>331</v>
       </c>
       <c r="D102" s="2" t="s">
@@ -5272,24 +5178,23 @@
       <c r="E102" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F102" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
+      <c r="H102" s="5"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="5" t="s">
         <v>331</v>
       </c>
       <c r="D103" s="2" t="s">
@@ -5298,24 +5203,23 @@
       <c r="E103" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F103" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
+      <c r="H103" s="5"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="5" t="s">
         <v>331</v>
       </c>
       <c r="D104" s="2" t="s">
@@ -5324,24 +5228,23 @@
       <c r="E104" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
+      <c r="H104" s="5"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="5" t="s">
         <v>331</v>
       </c>
       <c r="D105" s="2" t="s">
@@ -5350,24 +5253,23 @@
       <c r="E105" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F105" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
+      <c r="H105" s="5"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="5" t="s">
         <v>351</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -5376,24 +5278,23 @@
       <c r="E106" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F106" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
+      <c r="H106" s="5"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="5" t="s">
         <v>351</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -5402,24 +5303,23 @@
       <c r="E107" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
+      <c r="H107" s="5"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="5" t="s">
         <v>351</v>
       </c>
       <c r="D108" s="2" t="s">
@@ -5428,24 +5328,23 @@
       <c r="E108" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F108" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
+      <c r="H108" s="5"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="5" t="s">
         <v>351</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -5454,24 +5353,23 @@
       <c r="E109" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F109" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
+      <c r="H109" s="5"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="5" t="s">
         <v>351</v>
       </c>
       <c r="D110" s="2" t="s">
@@ -5480,24 +5378,23 @@
       <c r="E110" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
+      <c r="H110" s="5"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="5" t="s">
         <v>351</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -5506,24 +5403,23 @@
       <c r="E111" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F111" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
+      <c r="H111" s="5"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" s="6" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="5" t="s">
         <v>371</v>
       </c>
       <c r="D112" s="2" t="s">
@@ -5532,24 +5428,23 @@
       <c r="E112" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F112" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
+      <c r="H112" s="5"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="5" t="s">
         <v>371</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -5558,24 +5453,23 @@
       <c r="E113" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
+      <c r="H113" s="5"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="5" t="s">
         <v>371</v>
       </c>
       <c r="D114" s="2" t="s">
@@ -5584,25 +5478,24 @@
       <c r="E114" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F114" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
+      <c r="H114" s="5"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" s="3"/>
     </row>
-    <row r="115" s="6" customFormat="true" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="5" t="s">
         <v>371</v>
       </c>
       <c r="D115" s="2" t="s">
@@ -5611,24 +5504,23 @@
       <c r="E115" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F115" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
+      <c r="H115" s="5"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="5" t="s">
         <v>371</v>
       </c>
       <c r="D116" s="2" t="s">
@@ -5637,12 +5529,11 @@
       <c r="E116" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
@@ -5651,10 +5542,10 @@
       <c r="A117" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="5" t="s">
         <v>371</v>
       </c>
       <c r="D117" s="2" t="s">
@@ -5663,24 +5554,25 @@
       <c r="E117" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F117" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="14"/>
-      <c r="L117" s="14"/>
-    </row>
-    <row r="118" s="6" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G117" s="0"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="AMJ117" s="0"/>
+    </row>
+    <row r="118" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="5" t="s">
         <v>392</v>
       </c>
       <c r="D118" s="2" t="s">
@@ -5689,11 +5581,10 @@
       <c r="E118" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="F118" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
+      <c r="H118" s="5"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
@@ -5703,10 +5594,10 @@
       <c r="A119" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="5" t="s">
         <v>392</v>
       </c>
       <c r="D119" s="2" t="s">
@@ -5715,25 +5606,26 @@
       <c r="E119" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F119" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="14"/>
-      <c r="L119" s="14"/>
+      <c r="G119" s="0"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
       <c r="M119" s="3"/>
-    </row>
-    <row r="120" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ119" s="0"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="5" t="s">
         <v>392</v>
       </c>
       <c r="D120" s="2" t="s">
@@ -5742,24 +5634,23 @@
       <c r="E120" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="F120" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
+      <c r="H120" s="5"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="5" t="s">
         <v>392</v>
       </c>
       <c r="D121" s="2" t="s">
@@ -5768,24 +5659,23 @@
       <c r="E121" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="F121" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
+      <c r="H121" s="5"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="5" t="s">
         <v>392</v>
       </c>
       <c r="D122" s="2" t="s">
@@ -5794,50 +5684,48 @@
       <c r="E122" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="F122" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
+      <c r="H122" s="5"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="5" t="s">
         <v>406</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="F123" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
+      <c r="H123" s="5"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="5" t="s">
         <v>411</v>
       </c>
       <c r="D124" s="2" t="s">
@@ -5846,24 +5734,23 @@
       <c r="E124" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="F124" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
+      <c r="H124" s="5"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="5" t="s">
         <v>411</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -5872,24 +5759,23 @@
       <c r="E125" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F125" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
+      <c r="H125" s="5"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="5" t="s">
         <v>411</v>
       </c>
       <c r="D126" s="2" t="s">
@@ -5898,25 +5784,24 @@
       <c r="E126" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="F126" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
+      <c r="H126" s="5"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="3"/>
     </row>
-    <row r="127" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="5" t="s">
         <v>411</v>
       </c>
       <c r="D127" s="2" t="s">
@@ -5925,24 +5810,23 @@
       <c r="E127" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="F127" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
+      <c r="H127" s="5"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" s="5" t="s">
         <v>411</v>
       </c>
       <c r="D128" s="2" t="s">
@@ -5951,24 +5835,23 @@
       <c r="E128" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="F128" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
+      <c r="H128" s="5"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C129" s="5" t="s">
         <v>411</v>
       </c>
       <c r="D129" s="2" t="s">
@@ -5977,24 +5860,23 @@
       <c r="E129" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="F129" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
+      <c r="H129" s="5"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C130" s="5" t="s">
         <v>428</v>
       </c>
       <c r="D130" s="2" t="s">
@@ -6003,51 +5885,49 @@
       <c r="E130" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="F130" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
+      <c r="H130" s="5"/>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="5" t="s">
         <v>428</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E131" s="7" t="s">
+      <c r="E131" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="F131" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
+      <c r="H131" s="5"/>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="3"/>
     </row>
-    <row r="132" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="5" t="s">
         <v>428</v>
       </c>
       <c r="D132" s="2" t="s">
@@ -6056,11 +5936,10 @@
       <c r="E132" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="F132" s="7" t="s">
+      <c r="F132" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
+      <c r="H132" s="5"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
@@ -6070,10 +5949,10 @@
       <c r="A133" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C133" s="5" t="s">
         <v>428</v>
       </c>
       <c r="D133" s="2" t="s">
@@ -6082,25 +5961,26 @@
       <c r="E133" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="F133" s="7" t="s">
+      <c r="F133" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="7"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="14"/>
-      <c r="L133" s="14"/>
+      <c r="G133" s="0"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="12"/>
       <c r="M133" s="3"/>
-    </row>
-    <row r="134" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ133" s="0"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C134" s="5" t="s">
         <v>428</v>
       </c>
       <c r="D134" s="2" t="s">
@@ -6109,25 +5989,24 @@
       <c r="E134" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="F134" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
+      <c r="H134" s="5"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" s="3"/>
     </row>
-    <row r="135" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C135" s="5" t="s">
         <v>428</v>
       </c>
       <c r="D135" s="2" t="s">
@@ -6136,24 +6015,23 @@
       <c r="E135" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="F135" s="7" t="s">
+      <c r="F135" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
+      <c r="H135" s="5"/>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
     </row>
-    <row r="136" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C136" s="5" t="s">
         <v>445</v>
       </c>
       <c r="D136" s="2" t="s">
@@ -6162,24 +6040,23 @@
       <c r="E136" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="F136" s="7" t="s">
+      <c r="F136" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
+      <c r="H136" s="5"/>
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
     </row>
-    <row r="137" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C137" s="5" t="s">
         <v>445</v>
       </c>
       <c r="D137" s="2" t="s">
@@ -6188,24 +6065,23 @@
       <c r="E137" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="F137" s="7" t="s">
+      <c r="F137" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
+      <c r="H137" s="5"/>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
     </row>
-    <row r="138" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C138" s="5" t="s">
         <v>445</v>
       </c>
       <c r="D138" s="2" t="s">
@@ -6214,50 +6090,48 @@
       <c r="E138" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F138" s="7" t="s">
+      <c r="F138" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
+      <c r="H138" s="5"/>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
     </row>
-    <row r="139" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C139" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D139" s="5" t="s">
         <v>452</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F139" s="7" t="s">
+      <c r="F139" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
+      <c r="H139" s="5"/>
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
     </row>
-    <row r="140" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C140" s="5" t="s">
         <v>445</v>
       </c>
       <c r="D140" s="2" t="s">
@@ -6266,24 +6140,23 @@
       <c r="E140" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="F140" s="7" t="s">
+      <c r="F140" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
+      <c r="H140" s="5"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
     </row>
-    <row r="141" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" s="5" t="s">
         <v>459</v>
       </c>
       <c r="D141" s="2" t="s">
@@ -6292,25 +6165,24 @@
       <c r="E141" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="F141" s="7" t="s">
+      <c r="F141" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
+      <c r="H141" s="5"/>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
     </row>
-    <row r="142" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C142" s="5" t="s">
         <v>459</v>
       </c>
       <c r="D142" s="2" t="s">
@@ -6319,24 +6191,23 @@
       <c r="E142" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="F142" s="7" t="s">
+      <c r="F142" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
+      <c r="H142" s="5"/>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
     </row>
-    <row r="143" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C143" s="5" t="s">
         <v>459</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -6345,24 +6216,23 @@
       <c r="E143" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="F143" s="7" t="s">
+      <c r="F143" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
+      <c r="H143" s="5"/>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
     </row>
-    <row r="144" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C144" s="5" t="s">
         <v>459</v>
       </c>
       <c r="D144" s="2" t="s">
@@ -6371,24 +6241,23 @@
       <c r="E144" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="F144" s="7" t="s">
+      <c r="F144" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
+      <c r="H144" s="5"/>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
     </row>
-    <row r="145" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C145" s="5" t="s">
         <v>459</v>
       </c>
       <c r="D145" s="2" t="s">
@@ -6397,24 +6266,23 @@
       <c r="E145" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="F145" s="7" t="s">
+      <c r="F145" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
+      <c r="H145" s="5"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
     </row>
-    <row r="146" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C146" s="5" t="s">
         <v>459</v>
       </c>
       <c r="D146" s="2" t="s">
@@ -6423,25 +6291,24 @@
       <c r="E146" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="F146" s="7" t="s">
+      <c r="F146" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
+      <c r="H146" s="5"/>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
       <c r="M146" s="3"/>
     </row>
-    <row r="147" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="C147" s="5" t="s">
         <v>479</v>
       </c>
       <c r="D147" s="2" t="s">
@@ -6450,24 +6317,23 @@
       <c r="E147" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F147" s="7" t="s">
+      <c r="F147" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
+      <c r="H147" s="5"/>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
     </row>
-    <row r="148" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C148" s="5" t="s">
         <v>479</v>
       </c>
       <c r="D148" s="2" t="s">
@@ -6476,24 +6342,23 @@
       <c r="E148" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="F148" s="7" t="s">
+      <c r="F148" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
+      <c r="H148" s="5"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" s="5" t="s">
         <v>479</v>
       </c>
       <c r="D149" s="2" t="s">
@@ -6502,245 +6367,235 @@
       <c r="E149" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="F149" s="7" t="s">
+      <c r="F149" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
+      <c r="H149" s="5"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C150" s="5" t="s">
         <v>479</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>215</v>
+        <v>488</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="F150" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F150" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
+      <c r="H150" s="5"/>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
     </row>
-    <row r="151" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C151" s="5" t="s">
         <v>479</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F151" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F151" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
+      <c r="H151" s="5"/>
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
     </row>
-    <row r="152" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C152" s="5" t="s">
         <v>479</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F152" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F152" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7"/>
+      <c r="H152" s="5"/>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
     </row>
-    <row r="153" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B153" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="B153" s="5" t="s">
         <v>495</v>
       </c>
+      <c r="C153" s="5" t="s">
+        <v>496</v>
+      </c>
       <c r="D153" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F153" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
+      <c r="F153" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="H153" s="5"/>
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
     </row>
-    <row r="154" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B154" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="B154" s="5" t="s">
         <v>495</v>
       </c>
+      <c r="C154" s="5" t="s">
+        <v>496</v>
+      </c>
       <c r="D154" s="2" t="s">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
+        <v>501</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="H154" s="5"/>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
     </row>
-    <row r="155" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B155" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="B155" s="5" t="s">
         <v>495</v>
       </c>
+      <c r="C155" s="5" t="s">
+        <v>496</v>
+      </c>
       <c r="D155" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
+        <v>504</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="H155" s="5"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
     </row>
-    <row r="156" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B156" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="B156" s="5" t="s">
         <v>495</v>
       </c>
+      <c r="C156" s="5" t="s">
+        <v>496</v>
+      </c>
       <c r="D156" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="G156" s="7"/>
-      <c r="H156" s="7"/>
+        <v>507</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="H156" s="5"/>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
     </row>
-    <row r="157" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="C157" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B157" s="5" t="s">
         <v>495</v>
       </c>
+      <c r="C157" s="5" t="s">
+        <v>496</v>
+      </c>
       <c r="D157" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
+        <v>511</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="H157" s="5"/>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
     </row>
-    <row r="158" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="C158" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B158" s="5" t="s">
         <v>495</v>
       </c>
+      <c r="C158" s="5" t="s">
+        <v>496</v>
+      </c>
       <c r="D158" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="F158" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="G158" s="7"/>
-      <c r="H158" s="7"/>
+        <v>514</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="H158" s="5"/>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
@@ -6748,600 +6603,580 @@
     </row>
     <row r="159" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="C159" s="7" t="s">
         <v>516</v>
       </c>
+      <c r="B159" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>518</v>
+      </c>
       <c r="D159" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="G159" s="0"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
+      <c r="L159" s="12"/>
+      <c r="M159" s="3"/>
+      <c r="AMJ159" s="0"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B160" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="C160" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="F159" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
-      <c r="I159" s="7"/>
-      <c r="J159" s="14"/>
-      <c r="K159" s="14"/>
-      <c r="L159" s="14"/>
-      <c r="M159" s="3"/>
-    </row>
-    <row r="160" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>516</v>
-      </c>
       <c r="D160" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="G160" s="7"/>
-      <c r="H160" s="7"/>
+        <v>523</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="H160" s="5"/>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
     </row>
-    <row r="161" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="C161" s="7" t="s">
         <v>516</v>
       </c>
+      <c r="B161" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>518</v>
+      </c>
       <c r="D161" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F161" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="G161" s="7"/>
-      <c r="H161" s="7"/>
+        <v>526</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="H161" s="5"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
     </row>
-    <row r="162" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="C162" s="7" t="s">
         <v>516</v>
       </c>
+      <c r="B162" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>518</v>
+      </c>
       <c r="D162" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
+        <v>529</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="H162" s="5"/>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
     </row>
-    <row r="163" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="C163" s="7" t="s">
         <v>516</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
+        <v>531</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="H163" s="5"/>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
     </row>
-    <row r="164" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="C164" s="7" t="s">
         <v>516</v>
       </c>
+      <c r="B164" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>518</v>
+      </c>
       <c r="D164" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
+        <v>534</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="H164" s="5"/>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
     </row>
-    <row r="165" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="C165" s="7" t="s">
         <v>536</v>
       </c>
+      <c r="B165" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="D165" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="G165" s="7"/>
-      <c r="H165" s="7"/>
+        <v>540</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="H165" s="5"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
       <c r="M165" s="3"/>
     </row>
-    <row r="166" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="C166" s="7" t="s">
         <v>536</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="G166" s="7"/>
-      <c r="H166" s="7"/>
+        <v>542</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="H166" s="5"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
     </row>
-    <row r="167" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="C167" s="7" t="s">
         <v>536</v>
       </c>
+      <c r="B167" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="D167" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="G167" s="7"/>
-      <c r="H167" s="7"/>
+        <v>544</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="H167" s="5"/>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
     </row>
-    <row r="168" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="C168" s="7" t="s">
         <v>536</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="F168" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="G168" s="7"/>
-      <c r="H168" s="7"/>
+        <v>546</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="H168" s="5"/>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
     </row>
-    <row r="169" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="C169" s="7" t="s">
         <v>536</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>152</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
+        <v>548</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="H169" s="5"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
       <c r="L169" s="2"/>
     </row>
-    <row r="170" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="C170" s="7" t="s">
         <v>536</v>
       </c>
+      <c r="B170" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>538</v>
+      </c>
       <c r="D170" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="F170" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
+        <v>551</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="H170" s="5"/>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
     </row>
     <row r="171" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="C171" s="7" t="s">
+      <c r="A171" s="5" t="s">
         <v>553</v>
       </c>
+      <c r="B171" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="D171" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="G171" s="0"/>
+      <c r="H171" s="5"/>
+      <c r="AMJ171" s="0"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B172" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="C172" s="5" t="s">
         <v>555</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="G171" s="7"/>
-      <c r="H171" s="7"/>
-    </row>
-    <row r="172" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>553</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>272</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
+        <v>559</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="H172" s="5"/>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
-      <c r="M172" s="17"/>
-    </row>
-    <row r="173" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M172" s="15"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="C173" s="7" t="s">
         <v>553</v>
       </c>
+      <c r="B173" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="D173" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="F173" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="G173" s="7"/>
-      <c r="H173" s="7"/>
+        <v>562</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="H173" s="5"/>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
     </row>
-    <row r="174" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="C174" s="7" t="s">
         <v>553</v>
       </c>
+      <c r="B174" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="D174" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E174" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="F174" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="F174" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="G174" s="7"/>
-      <c r="H174" s="7"/>
-      <c r="I174" s="4"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="1"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
-      <c r="L174" s="4"/>
       <c r="M174" s="2"/>
     </row>
-    <row r="175" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="C175" s="7" t="s">
         <v>553</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>272</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
+        <v>566</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="H175" s="5"/>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
     </row>
-    <row r="176" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="C176" s="7" t="s">
         <v>553</v>
       </c>
+      <c r="B176" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="D176" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="F176" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="G176" s="7"/>
-      <c r="H176" s="7"/>
+        <v>568</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="H176" s="5"/>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
     </row>
-    <row r="177" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="C177" s="7" t="s">
         <v>570</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>572</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>480</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="F177" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="G177" s="7"/>
-      <c r="H177" s="7"/>
+        <v>573</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="H177" s="5"/>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
     </row>
-    <row r="178" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="C178" s="7" t="s">
         <v>570</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>572</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>283</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="F178" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="G178" s="7"/>
-      <c r="H178" s="7"/>
+        <v>575</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="H178" s="5"/>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
     </row>
-    <row r="179" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="C179" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="D179" s="7" t="s">
-        <v>575</v>
+      <c r="B179" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>577</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F179" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="G179" s="7"/>
-      <c r="H179" s="7"/>
+        <v>578</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="H179" s="5"/>
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
     </row>
-    <row r="180" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="C180" s="7" t="s">
         <v>570</v>
       </c>
+      <c r="B180" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>572</v>
+      </c>
       <c r="D180" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="F180" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="G180" s="7"/>
-      <c r="H180" s="7"/>
+        <v>581</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H180" s="5"/>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
     </row>
-    <row r="181" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="C181" s="7" t="s">
         <v>570</v>
       </c>
+      <c r="B181" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>572</v>
+      </c>
       <c r="D181" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="E181" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="F181" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="F181" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="G181" s="7"/>
-      <c r="H181" s="7"/>
+      <c r="H181" s="5"/>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
@@ -7350,314 +7185,304 @@
     </row>
     <row r="182" s="2" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="C182" s="7" t="s">
         <v>570</v>
       </c>
+      <c r="B182" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>572</v>
+      </c>
       <c r="D182" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="F182" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="G182" s="7"/>
-      <c r="H182" s="7"/>
-      <c r="I182" s="7"/>
-      <c r="J182" s="18"/>
-      <c r="K182" s="18"/>
-      <c r="L182" s="18"/>
-    </row>
-    <row r="183" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>586</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="G182" s="0"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="16"/>
+      <c r="K182" s="16"/>
+      <c r="L182" s="16"/>
+      <c r="AMJ182" s="0"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="C183" s="7" t="s">
         <v>588</v>
       </c>
+      <c r="B183" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="D183" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="F183" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="G183" s="7"/>
-      <c r="H183" s="7"/>
+        <v>592</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="H183" s="5"/>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
       <c r="M183" s="3"/>
     </row>
-    <row r="184" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="C184" s="7" t="s">
         <v>588</v>
       </c>
+      <c r="B184" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="D184" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E184" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F184" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="F184" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="G184" s="7"/>
-      <c r="H184" s="7"/>
+      <c r="H184" s="5"/>
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
     </row>
-    <row r="185" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="C185" s="7" t="s">
         <v>588</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>590</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>152</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="F185" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="G185" s="7"/>
-      <c r="H185" s="7"/>
+        <v>596</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="H185" s="5"/>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
     </row>
-    <row r="186" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="C186" s="7" t="s">
         <v>588</v>
       </c>
+      <c r="B186" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="D186" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="F186" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="G186" s="7"/>
-      <c r="H186" s="7"/>
+        <v>598</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="H186" s="5"/>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
       <c r="M186" s="3"/>
     </row>
-    <row r="187" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="C187" s="7" t="s">
         <v>588</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>590</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>308</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="F187" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="G187" s="7"/>
-      <c r="H187" s="7"/>
+        <v>599</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="H187" s="5"/>
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
       <c r="M187" s="3"/>
     </row>
-    <row r="188" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="C188" s="7" t="s">
         <v>588</v>
       </c>
+      <c r="B188" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="D188" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="G188" s="7"/>
-      <c r="H188" s="7"/>
+        <v>601</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="H188" s="5"/>
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
     </row>
-    <row r="189" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="C189" s="7" t="s">
         <v>603</v>
       </c>
+      <c r="B189" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>605</v>
+      </c>
       <c r="D189" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="F189" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="G189" s="7"/>
-      <c r="H189" s="7"/>
+        <v>607</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="H189" s="5"/>
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
     </row>
-    <row r="190" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="C190" s="7" t="s">
         <v>603</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>605</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="F190" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="G190" s="7"/>
-      <c r="H190" s="7"/>
+        <v>609</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="H190" s="5"/>
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
     </row>
-    <row r="191" s="6" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="C191" s="7" t="s">
         <v>603</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>605</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="F191" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="G191" s="7"/>
-      <c r="H191" s="7"/>
+        <v>611</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="H191" s="5"/>
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
     </row>
-    <row r="192" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="C192" s="7" t="s">
         <v>603</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>605</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>189</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="G192" s="7"/>
-      <c r="H192" s="7"/>
+        <v>613</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="H192" s="5"/>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
     </row>
-    <row r="193" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="C193" s="7" t="s">
         <v>603</v>
       </c>
+      <c r="B193" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>605</v>
+      </c>
       <c r="D193" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="F193" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="G193" s="7"/>
-      <c r="H193" s="7"/>
+        <v>616</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="H193" s="5"/>
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
@@ -7665,126 +7490,123 @@
     </row>
     <row r="194" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="C194" s="7" t="s">
         <v>603</v>
       </c>
+      <c r="B194" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>605</v>
+      </c>
       <c r="D194" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="F194" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="G194" s="7"/>
-      <c r="H194" s="7"/>
+        <v>619</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="G194" s="0"/>
+      <c r="H194" s="5"/>
       <c r="M194" s="3"/>
-    </row>
-    <row r="195" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ194" s="0"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="C195" s="7" t="s">
         <v>621</v>
       </c>
+      <c r="B195" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="D195" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="F195" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="G195" s="7"/>
-      <c r="H195" s="7"/>
+        <v>625</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="H195" s="5"/>
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
     </row>
-    <row r="196" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="C196" s="7" t="s">
         <v>621</v>
       </c>
+      <c r="B196" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="D196" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="F196" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="G196" s="7"/>
-      <c r="H196" s="7"/>
+        <v>628</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="H196" s="5"/>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
     </row>
-    <row r="197" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="C197" s="7" t="s">
         <v>621</v>
       </c>
+      <c r="B197" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="D197" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="F197" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="G197" s="7"/>
-      <c r="H197" s="7"/>
+        <v>631</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="H197" s="5"/>
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
     </row>
-    <row r="198" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="C198" s="7" t="s">
         <v>621</v>
       </c>
+      <c r="B198" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="D198" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="F198" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="G198" s="7"/>
-      <c r="H198" s="7"/>
+        <v>634</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="H198" s="5"/>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
@@ -7792,286 +7614,277 @@
     </row>
     <row r="199" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="C199" s="7" t="s">
         <v>621</v>
       </c>
+      <c r="B199" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="D199" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="F199" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="G199" s="7"/>
-      <c r="H199" s="7"/>
-      <c r="I199" s="7"/>
-      <c r="J199" s="18"/>
-      <c r="K199" s="18"/>
-      <c r="L199" s="18"/>
-    </row>
-    <row r="200" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>636</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="G199" s="0"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="16"/>
+      <c r="K199" s="16"/>
+      <c r="L199" s="16"/>
+      <c r="AMJ199" s="0"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="C200" s="7" t="s">
         <v>621</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>623</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="F200" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="G200" s="7"/>
-      <c r="H200" s="7"/>
+        <v>637</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="H200" s="5"/>
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
     </row>
-    <row r="201" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="C201" s="7" t="s">
         <v>638</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>640</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="F201" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="G201" s="7"/>
-      <c r="H201" s="7"/>
+        <v>641</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="H201" s="5"/>
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
       <c r="M201" s="3"/>
     </row>
-    <row r="202" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="C202" s="7" t="s">
         <v>638</v>
       </c>
+      <c r="B202" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>640</v>
+      </c>
       <c r="D202" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="F202" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="G202" s="7"/>
-      <c r="H202" s="7"/>
-      <c r="I202" s="7"/>
+        <v>644</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
     </row>
-    <row r="203" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="C203" s="7" t="s">
         <v>638</v>
       </c>
+      <c r="B203" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>640</v>
+      </c>
       <c r="D203" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="F203" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="G203" s="7"/>
-      <c r="H203" s="7"/>
+        <v>647</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="H203" s="5"/>
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
     </row>
-    <row r="204" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="C204" s="7" t="s">
         <v>638</v>
       </c>
+      <c r="B204" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>640</v>
+      </c>
       <c r="D204" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="F204" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="G204" s="7"/>
-      <c r="H204" s="7"/>
+        <v>650</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="H204" s="5"/>
       <c r="I204" s="2"/>
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
     </row>
-    <row r="205" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B205" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="C205" s="7" t="s">
         <v>638</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>640</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>215</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="F205" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="G205" s="7"/>
-      <c r="H205" s="7"/>
+        <v>652</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="H205" s="5"/>
       <c r="I205" s="2"/>
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
     </row>
-    <row r="206" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B206" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="C206" s="7" t="s">
         <v>638</v>
       </c>
+      <c r="B206" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>640</v>
+      </c>
       <c r="D206" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="F206" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="G206" s="7"/>
-      <c r="H206" s="7"/>
+        <v>655</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="H206" s="5"/>
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
     </row>
-    <row r="207" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B207" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="C207" s="7" t="s">
         <v>656</v>
       </c>
+      <c r="B207" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="D207" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="F207" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="G207" s="7"/>
-      <c r="H207" s="7"/>
+        <v>660</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="H207" s="5"/>
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
     </row>
-    <row r="208" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B208" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="C208" s="7" t="s">
         <v>656</v>
       </c>
+      <c r="B208" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="D208" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="F208" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="G208" s="7"/>
-      <c r="H208" s="7"/>
+        <v>663</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="H208" s="5"/>
       <c r="I208" s="2"/>
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
     </row>
-    <row r="209" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="C209" s="7" t="s">
         <v>656</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>658</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E209" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="F209" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="G209" s="7"/>
-      <c r="H209" s="7"/>
+      <c r="E209" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="H209" s="5"/>
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
@@ -8080,205 +7893,199 @@
     </row>
     <row r="210" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="C210" s="7" t="s">
         <v>656</v>
       </c>
+      <c r="B210" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="D210" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="F210" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="G210" s="7"/>
-      <c r="H210" s="7"/>
+        <v>668</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="G210" s="0"/>
+      <c r="H210" s="5"/>
       <c r="M210" s="3"/>
-    </row>
-    <row r="211" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ210" s="0"/>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="C211" s="7" t="s">
         <v>656</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>658</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>372</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="F211" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="G211" s="7"/>
-      <c r="H211" s="7"/>
+        <v>669</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="H211" s="5"/>
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
-      <c r="M211" s="19"/>
-    </row>
-    <row r="212" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M211" s="17"/>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="C212" s="7" t="s">
         <v>656</v>
       </c>
+      <c r="B212" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="D212" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="F212" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="G212" s="7"/>
-      <c r="H212" s="7"/>
+        <v>672</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="H212" s="5"/>
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
     </row>
-    <row r="213" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="B213" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="C213" s="7" t="s">
         <v>674</v>
       </c>
+      <c r="B213" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>676</v>
+      </c>
       <c r="D213" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="F213" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="G213" s="7"/>
-      <c r="H213" s="7"/>
+        <v>678</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="H213" s="5"/>
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
     </row>
-    <row r="214" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="B214" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="C214" s="7" t="s">
         <v>674</v>
       </c>
+      <c r="B214" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>676</v>
+      </c>
       <c r="D214" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="F214" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="G214" s="7"/>
-      <c r="H214" s="7"/>
+        <v>680</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="H214" s="5"/>
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
     </row>
-    <row r="215" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="B215" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="C215" s="7" t="s">
         <v>674</v>
       </c>
+      <c r="B215" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>676</v>
+      </c>
       <c r="D215" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="F215" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="G215" s="7"/>
-      <c r="H215" s="7"/>
+        <v>683</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="H215" s="5"/>
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
     </row>
-    <row r="216" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="B216" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="C216" s="7" t="s">
         <v>674</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>676</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="F216" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="G216" s="7"/>
-      <c r="H216" s="7"/>
+        <v>685</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="H216" s="5"/>
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
     </row>
-    <row r="217" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="C217" s="7" t="s">
         <v>674</v>
       </c>
+      <c r="B217" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>676</v>
+      </c>
       <c r="D217" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="F217" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="G217" s="7"/>
-      <c r="H217" s="7"/>
+        <v>688</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="H217" s="5"/>
       <c r="I217" s="2"/>
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
@@ -8286,48 +8093,48 @@
     </row>
     <row r="218" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="B218" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="C218" s="7" t="s">
         <v>674</v>
       </c>
+      <c r="B218" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>676</v>
+      </c>
       <c r="D218" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="F218" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="G218" s="7"/>
-      <c r="H218" s="7"/>
+        <v>691</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="G218" s="0"/>
+      <c r="H218" s="5"/>
       <c r="M218" s="3"/>
-    </row>
-    <row r="219" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ218" s="0"/>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="C219" s="7" t="s">
         <v>693</v>
       </c>
+      <c r="B219" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>695</v>
+      </c>
       <c r="D219" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="F219" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="G219" s="7"/>
-      <c r="H219" s="7"/>
+        <v>697</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="H219" s="5"/>
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
@@ -8335,183 +8142,178 @@
     </row>
     <row r="220" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="B220" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="C220" s="7" t="s">
         <v>693</v>
       </c>
+      <c r="B220" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>695</v>
+      </c>
       <c r="D220" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="E220" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="F220" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="G220" s="7"/>
-      <c r="H220" s="7"/>
-      <c r="I220" s="7"/>
-      <c r="J220" s="14"/>
-      <c r="K220" s="14"/>
-      <c r="L220" s="14"/>
+      <c r="E220" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="G220" s="0"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="12"/>
+      <c r="K220" s="12"/>
+      <c r="L220" s="12"/>
       <c r="M220" s="3"/>
-    </row>
-    <row r="221" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ220" s="0"/>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="C221" s="7" t="s">
         <v>693</v>
       </c>
+      <c r="B221" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>695</v>
+      </c>
       <c r="D221" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="F221" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="G221" s="7"/>
-      <c r="H221" s="7"/>
+        <v>703</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="H221" s="5"/>
       <c r="I221" s="2"/>
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
     </row>
-    <row r="222" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="B222" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="C222" s="7" t="s">
         <v>693</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>695</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>239</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="F222" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="G222" s="7"/>
-      <c r="H222" s="7"/>
+        <v>705</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="H222" s="5"/>
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
       <c r="M222" s="3"/>
     </row>
-    <row r="223" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="C223" s="7" t="s">
         <v>693</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>695</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="F223" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="G223" s="7"/>
-      <c r="H223" s="7"/>
+        <v>707</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="H223" s="5"/>
       <c r="I223" s="2"/>
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
     </row>
-    <row r="224" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="B224" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="C224" s="7" t="s">
         <v>693</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>695</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="F224" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="G224" s="7"/>
-      <c r="H224" s="7"/>
+        <v>709</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="H224" s="5"/>
       <c r="I224" s="2"/>
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
     </row>
-    <row r="225" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="C225" s="7" t="s">
         <v>711</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>713</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="F225" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="G225" s="7"/>
-      <c r="H225" s="7"/>
+        <v>714</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="H225" s="5"/>
       <c r="I225" s="2"/>
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
     </row>
-    <row r="226" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="C226" s="7" t="s">
         <v>711</v>
       </c>
+      <c r="B226" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>713</v>
+      </c>
       <c r="D226" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="F226" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="G226" s="7"/>
-      <c r="H226" s="7"/>
+        <v>717</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="H226" s="5"/>
       <c r="I226" s="2"/>
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
@@ -8519,377 +8321,368 @@
     </row>
     <row r="227" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="C227" s="7" t="s">
         <v>711</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>713</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>308</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="F227" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="G227" s="7"/>
-      <c r="H227" s="7"/>
-      <c r="I227" s="7"/>
-      <c r="J227" s="14"/>
-      <c r="K227" s="4"/>
-      <c r="L227" s="7"/>
+        <v>719</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="G227" s="0"/>
+      <c r="H227" s="5"/>
+      <c r="I227" s="5"/>
+      <c r="J227" s="12"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="5"/>
       <c r="M227" s="3"/>
-    </row>
-    <row r="228" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ227" s="0"/>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="B228" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="C228" s="7" t="s">
         <v>711</v>
       </c>
+      <c r="B228" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>713</v>
+      </c>
       <c r="D228" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="F228" s="7" t="s">
-        <v>721</v>
-      </c>
-      <c r="G228" s="7"/>
-      <c r="H228" s="7"/>
+        <v>722</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="H228" s="5"/>
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
     </row>
-    <row r="229" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="C229" s="7" t="s">
         <v>711</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>713</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="F229" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="G229" s="7"/>
-      <c r="H229" s="7"/>
+        <v>724</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="H229" s="5"/>
       <c r="I229" s="2"/>
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
     </row>
-    <row r="230" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="C230" s="7" t="s">
         <v>711</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>713</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>215</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="F230" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="G230" s="7"/>
-      <c r="H230" s="7"/>
+        <v>726</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="H230" s="5"/>
       <c r="I230" s="2"/>
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
       <c r="L230" s="2"/>
     </row>
-    <row r="231" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="C231" s="7" t="s">
         <v>727</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>398</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="F231" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="G231" s="7"/>
-      <c r="H231" s="7"/>
+        <v>730</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="H231" s="5"/>
       <c r="I231" s="2"/>
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
     </row>
-    <row r="232" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="B232" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="C232" s="7" t="s">
         <v>727</v>
       </c>
+      <c r="B232" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>729</v>
+      </c>
       <c r="D232" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="F232" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="G232" s="7"/>
-      <c r="H232" s="7"/>
+        <v>733</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="H232" s="5"/>
       <c r="I232" s="2"/>
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
       <c r="L232" s="2"/>
     </row>
-    <row r="233" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="C233" s="7" t="s">
         <v>727</v>
       </c>
+      <c r="B233" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>729</v>
+      </c>
       <c r="D233" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="F233" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="G233" s="7"/>
-      <c r="H233" s="7"/>
+        <v>736</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="H233" s="5"/>
       <c r="I233" s="2"/>
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
     </row>
-    <row r="234" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="C234" s="7" t="s">
         <v>727</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>215</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="F234" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="G234" s="7"/>
-      <c r="H234" s="7"/>
+        <v>738</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="H234" s="5"/>
       <c r="I234" s="2"/>
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
     </row>
-    <row r="235" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="C235" s="7" t="s">
         <v>727</v>
       </c>
+      <c r="B235" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>729</v>
+      </c>
       <c r="D235" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="F235" s="7" t="s">
-        <v>740</v>
-      </c>
-      <c r="G235" s="7"/>
-      <c r="H235" s="7"/>
+        <v>741</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="H235" s="5"/>
       <c r="I235" s="2"/>
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
     </row>
-    <row r="236" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="B236" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="C236" s="7" t="s">
         <v>727</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>152</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="F236" s="7" t="s">
-        <v>742</v>
-      </c>
-      <c r="G236" s="7"/>
-      <c r="H236" s="7"/>
+        <v>743</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="H236" s="5"/>
       <c r="I236" s="2"/>
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="20"/>
-      <c r="C237" s="20"/>
-      <c r="F237" s="20"/>
-      <c r="G237" s="20"/>
-      <c r="H237" s="20"/>
-      <c r="I237" s="20"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="5"/>
+      <c r="F237" s="5"/>
+      <c r="H237" s="5"/>
+      <c r="I237" s="5"/>
       <c r="J237" s="0"/>
       <c r="K237" s="0"/>
       <c r="L237" s="0"/>
     </row>
-    <row r="238" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="21" t="s">
+    <row r="238" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="B238" s="22" t="s">
+      <c r="B238" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="C238" s="22" t="s">
+      <c r="C238" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="D238" s="21" t="s">
-        <v>743</v>
-      </c>
-      <c r="E238" s="21" t="s">
-        <v>744</v>
-      </c>
-      <c r="F238" s="22" t="s">
+      <c r="D238" s="18" t="s">
         <v>745</v>
       </c>
-      <c r="G238" s="22"/>
-      <c r="H238" s="22"/>
-      <c r="I238" s="22"/>
-      <c r="J238" s="21"/>
-      <c r="K238" s="21"/>
-      <c r="L238" s="21"/>
-      <c r="M238" s="21"/>
-    </row>
-    <row r="239" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="21" t="s">
+      <c r="E238" s="18" t="s">
+        <v>746</v>
+      </c>
+      <c r="F238" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="G238" s="0"/>
+      <c r="H238" s="19"/>
+      <c r="I238" s="19"/>
+      <c r="J238" s="18"/>
+      <c r="K238" s="18"/>
+      <c r="L238" s="18"/>
+      <c r="M238" s="18"/>
+      <c r="AMJ238" s="0"/>
+    </row>
+    <row r="239" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="B239" s="22" t="s">
+      <c r="B239" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C239" s="22" t="s">
+      <c r="C239" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="D239" s="21" t="s">
-        <v>746</v>
-      </c>
-      <c r="E239" s="21" t="s">
-        <v>747</v>
-      </c>
-      <c r="F239" s="22" t="s">
+      <c r="D239" s="18" t="s">
         <v>748</v>
       </c>
-      <c r="G239" s="22"/>
-      <c r="H239" s="22"/>
-      <c r="I239" s="22"/>
-      <c r="J239" s="24"/>
-      <c r="K239" s="24"/>
-      <c r="L239" s="24"/>
-      <c r="M239" s="25"/>
+      <c r="E239" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="F239" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="G239" s="0"/>
+      <c r="H239" s="19"/>
+      <c r="I239" s="19"/>
+      <c r="J239" s="21"/>
+      <c r="K239" s="21"/>
+      <c r="L239" s="21"/>
+      <c r="M239" s="22"/>
+      <c r="AMJ239" s="0"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="21" t="s">
+      <c r="A240" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="B240" s="22" t="s">
+      <c r="B240" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C240" s="22" t="s">
+      <c r="C240" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D240" s="21" t="s">
-        <v>749</v>
-      </c>
-      <c r="E240" s="21" t="s">
-        <v>750</v>
-      </c>
-      <c r="F240" s="22" t="s">
+      <c r="D240" s="18" t="s">
         <v>751</v>
       </c>
-      <c r="G240" s="22"/>
-      <c r="H240" s="22"/>
-      <c r="I240" s="22"/>
-      <c r="M240" s="21"/>
+      <c r="E240" s="18" t="s">
+        <v>752</v>
+      </c>
+      <c r="F240" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="H240" s="19"/>
+      <c r="I240" s="19"/>
+      <c r="M240" s="18"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="21" t="s">
+      <c r="A241" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B241" s="22" t="s">
+      <c r="B241" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C241" s="22" t="s">
+      <c r="C241" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D241" s="21" t="s">
-        <v>752</v>
-      </c>
-      <c r="E241" s="21" t="s">
-        <v>753</v>
-      </c>
-      <c r="F241" s="22" t="s">
+      <c r="D241" s="18" t="s">
         <v>754</v>
       </c>
-      <c r="G241" s="22"/>
-      <c r="H241" s="22"/>
-      <c r="I241" s="22"/>
-      <c r="M241" s="21"/>
+      <c r="E241" s="18" t="s">
+        <v>755</v>
+      </c>
+      <c r="F241" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="H241" s="19"/>
+      <c r="I241" s="19"/>
+      <c r="M241" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/wikiwho/tests/test_wikiwho_simple.xlsx
+++ b/wikiwho/tests/test_wikiwho_simple.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="753">
   <si>
     <t>Article</t>
   </si>
@@ -77,7 +77,7 @@
     <t>353535318</t>
   </si>
   <si>
-    <t>]] → ]</t>
+    <t>]]</t>
   </si>
   <si>
     <t>custom-designed [[gate array]] to generate</t>
@@ -185,7 +185,7 @@
     <t>49493998</t>
   </si>
   <si>
-    <t>Mankind" → Mankind</t>
+    <t>Mankind</t>
   </si>
   <si>
     <t>Archive short film|id=gov.archives.arc.7500|name="Apollo 11: One Giant Leap for Mankind"}}</t>
@@ -662,7 +662,7 @@
     <t>349346698</t>
   </si>
   <si>
-    <t>[[ → [</t>
+    <t>[[</t>
   </si>
   <si>
     <t>(40): "[[Aristoxenus]] in his</t>
@@ -734,7 +734,7 @@
     <t>573020570</t>
   </si>
   <si>
-    <t>}} → }</t>
+    <t>}}</t>
   </si>
   <si>
     <t>{{Reflist}}</t>
@@ -1510,9 +1510,6 @@
     <t>anthropoid primates due to a slight difference in the</t>
   </si>
   <si>
-    <t>[[</t>
-  </si>
-  <si>
     <t>enclosures have been observed eating [[poison</t>
   </si>
   <si>
@@ -1546,9 +1543,6 @@
     <t>464580094</t>
   </si>
   <si>
-    <t>]]</t>
-  </si>
-  <si>
     <t>The church gained autonomy from the [[Serbian Orthodox Church]]</t>
   </si>
   <si>
@@ -1601,9 +1595,6 @@
   </si>
   <si>
     <t>481126024</t>
-  </si>
-  <si>
-    <t>/&gt; → /</t>
   </si>
   <si>
     <t>during Muhammad's early lifetime.&lt;ref name="EoI-Muhammad"/&gt;</t>
@@ -1901,7 +1892,7 @@
     <t>135546415</t>
   </si>
   <si>
-    <t>base"</t>
+    <t>base</t>
   </si>
   <si>
     <t>of human colonization and mining called "M-Base".</t>
@@ -1976,7 +1967,7 @@
     <t>181667862</t>
   </si>
   <si>
-    <t>{{ → {</t>
+    <t>{{</t>
   </si>
   <si>
     <t>==References== {{reflist}}</t>
@@ -2048,9 +2039,6 @@
     <t>351942186</t>
   </si>
   <si>
-    <t>&lt;/ → /</t>
-  </si>
-  <si>
     <t>| 'B' Squadron&lt;ref&gt;Fremont-Barnes, p.4&lt;/ref&gt;</t>
   </si>
   <si>
@@ -2117,7 +2105,7 @@
     <t>287529321</t>
   </si>
   <si>
-    <t>Party's → party</t>
+    <t>party</t>
   </si>
   <si>
     <t>the party's racism. Many leaders of German</t>
@@ -2597,7 +2585,7 @@
   <dimension ref="1:241"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="D195" activeCellId="0" sqref="D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2639,6 +2627,8 @@
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="3"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
       <c r="L1" s="4"/>
       <c r="M1" s="2"/>
     </row>
@@ -2842,6 +2832,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
+      <c r="L9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
@@ -6387,10 +6378,10 @@
         <v>479</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>485</v>
@@ -6412,10 +6403,10 @@
         <v>479</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>485</v>
@@ -6437,10 +6428,10 @@
         <v>479</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>485</v>
@@ -6453,22 +6444,22 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B153" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="C153" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="D153" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="E153" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="F153" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>499</v>
       </c>
       <c r="H153" s="5"/>
       <c r="I153" s="2"/>
@@ -6478,22 +6469,22 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="C154" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C154" s="5" t="s">
-        <v>496</v>
-      </c>
       <c r="D154" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F154" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>502</v>
       </c>
       <c r="H154" s="5"/>
       <c r="I154" s="2"/>
@@ -6503,22 +6494,22 @@
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B155" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="C155" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>496</v>
-      </c>
       <c r="D155" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F155" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="F155" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="H155" s="5"/>
       <c r="I155" s="2"/>
@@ -6528,22 +6519,22 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B156" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="C156" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C156" s="5" t="s">
-        <v>496</v>
-      </c>
       <c r="D156" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F156" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="F156" s="5" t="s">
-        <v>508</v>
       </c>
       <c r="H156" s="5"/>
       <c r="I156" s="2"/>
@@ -6553,22 +6544,22 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B157" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="D157" s="2" t="s">
+      <c r="F157" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="F157" s="5" t="s">
-        <v>512</v>
       </c>
       <c r="H157" s="5"/>
       <c r="I157" s="2"/>
@@ -6578,22 +6569,22 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B158" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C158" s="5" t="s">
-        <v>496</v>
-      </c>
       <c r="D158" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F158" s="5" t="s">
         <v>513</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="F158" s="5" t="s">
-        <v>515</v>
       </c>
       <c r="H158" s="5"/>
       <c r="I158" s="2"/>
@@ -6603,22 +6594,22 @@
     </row>
     <row r="159" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C159" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="D159" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="F159" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="F159" s="5" t="s">
-        <v>521</v>
       </c>
       <c r="G159" s="0"/>
       <c r="H159" s="5"/>
@@ -6631,22 +6622,22 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B160" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>518</v>
-      </c>
       <c r="D160" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H160" s="5"/>
       <c r="I160" s="2"/>
@@ -6656,22 +6647,22 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B161" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>518</v>
-      </c>
       <c r="D161" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H161" s="5"/>
       <c r="I161" s="2"/>
@@ -6681,22 +6672,22 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B162" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>518</v>
-      </c>
       <c r="D162" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H162" s="5"/>
       <c r="I162" s="2"/>
@@ -6706,22 +6697,22 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>518</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H163" s="5"/>
       <c r="I163" s="2"/>
@@ -6731,22 +6722,22 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C164" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B164" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>518</v>
-      </c>
       <c r="D164" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H164" s="5"/>
       <c r="I164" s="2"/>
@@ -6756,22 +6747,22 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="E165" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="F165" s="5" t="s">
         <v>538</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>541</v>
       </c>
       <c r="H165" s="5"/>
       <c r="I165" s="2"/>
@@ -6782,22 +6773,22 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H166" s="5"/>
       <c r="I166" s="2"/>
@@ -6807,22 +6798,22 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H167" s="5"/>
       <c r="I167" s="2"/>
@@ -6832,22 +6823,22 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H168" s="5"/>
       <c r="I168" s="2"/>
@@ -6857,22 +6848,22 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>152</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H169" s="5"/>
       <c r="I169" s="2"/>
@@ -6882,22 +6873,22 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H170" s="5"/>
       <c r="I170" s="2"/>
@@ -6907,22 +6898,22 @@
     </row>
     <row r="171" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="E171" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="F171" s="5" t="s">
         <v>555</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="F171" s="5" t="s">
-        <v>558</v>
       </c>
       <c r="G171" s="0"/>
       <c r="H171" s="5"/>
@@ -6930,22 +6921,22 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>272</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H172" s="5"/>
       <c r="I172" s="2"/>
@@ -6956,22 +6947,22 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H173" s="5"/>
       <c r="I173" s="2"/>
@@ -6982,47 +6973,48 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H174" s="5"/>
       <c r="I174" s="1"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
+      <c r="L174" s="0"/>
       <c r="M174" s="2"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>272</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H175" s="5"/>
       <c r="I175" s="2"/>
@@ -7033,22 +7025,22 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H176" s="5"/>
       <c r="I176" s="2"/>
@@ -7059,22 +7051,22 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>480</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H177" s="5"/>
       <c r="I177" s="2"/>
@@ -7084,22 +7076,22 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>283</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H178" s="5"/>
       <c r="I178" s="2"/>
@@ -7109,22 +7101,22 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H179" s="5"/>
       <c r="I179" s="2"/>
@@ -7134,22 +7126,22 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H180" s="5"/>
       <c r="I180" s="2"/>
@@ -7159,22 +7151,22 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H181" s="5"/>
       <c r="I181" s="2"/>
@@ -7185,22 +7177,22 @@
     </row>
     <row r="182" s="2" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G182" s="0"/>
       <c r="H182" s="5"/>
@@ -7212,22 +7204,22 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="E183" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C183" s="5" t="s">
+      <c r="F183" s="5" t="s">
         <v>590</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="F183" s="5" t="s">
-        <v>593</v>
       </c>
       <c r="H183" s="5"/>
       <c r="I183" s="2"/>
@@ -7238,22 +7230,22 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C184" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F184" s="5" t="s">
         <v>590</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="F184" s="5" t="s">
-        <v>593</v>
       </c>
       <c r="H184" s="5"/>
       <c r="I184" s="2"/>
@@ -7263,22 +7255,22 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>152</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H185" s="5"/>
       <c r="I185" s="2"/>
@@ -7288,22 +7280,22 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C186" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F186" s="5" t="s">
         <v>590</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="F186" s="5" t="s">
-        <v>593</v>
       </c>
       <c r="H186" s="5"/>
       <c r="I186" s="2"/>
@@ -7314,22 +7306,22 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>308</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H187" s="5"/>
       <c r="I187" s="2"/>
@@ -7340,22 +7332,22 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="H188" s="5"/>
       <c r="I188" s="2"/>
@@ -7365,22 +7357,22 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="E189" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="F189" s="5" t="s">
         <v>605</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="F189" s="5" t="s">
-        <v>608</v>
       </c>
       <c r="H189" s="5"/>
       <c r="I189" s="2"/>
@@ -7390,22 +7382,22 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H190" s="5"/>
       <c r="I190" s="2"/>
@@ -7415,22 +7407,22 @@
     </row>
     <row r="191" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H191" s="5"/>
       <c r="I191" s="2"/>
@@ -7440,22 +7432,22 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>189</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H192" s="5"/>
       <c r="I192" s="2"/>
@@ -7465,22 +7457,22 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H193" s="5"/>
       <c r="I193" s="2"/>
@@ -7490,22 +7482,22 @@
     </row>
     <row r="194" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G194" s="0"/>
       <c r="H194" s="5"/>
@@ -7514,22 +7506,22 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="E195" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="C195" s="5" t="s">
+      <c r="F195" s="5" t="s">
         <v>623</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="F195" s="5" t="s">
-        <v>626</v>
       </c>
       <c r="H195" s="5"/>
       <c r="I195" s="2"/>
@@ -7539,22 +7531,22 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="H196" s="5"/>
       <c r="I196" s="2"/>
@@ -7564,22 +7556,22 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H197" s="5"/>
       <c r="I197" s="2"/>
@@ -7589,22 +7581,22 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="H198" s="5"/>
       <c r="I198" s="2"/>
@@ -7614,22 +7606,22 @@
     </row>
     <row r="199" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G199" s="0"/>
       <c r="H199" s="5"/>
@@ -7641,22 +7633,22 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="H200" s="5"/>
       <c r="I200" s="2"/>
@@ -7666,22 +7658,22 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H201" s="5"/>
       <c r="I201" s="2"/>
@@ -7692,22 +7684,22 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C202" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="D202" s="2" t="s">
-        <v>643</v>
-      </c>
       <c r="E202" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
@@ -7717,22 +7709,22 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H203" s="5"/>
       <c r="I203" s="2"/>
@@ -7742,22 +7734,22 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H204" s="5"/>
       <c r="I204" s="2"/>
@@ -7767,22 +7759,22 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>215</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H205" s="5"/>
       <c r="I205" s="2"/>
@@ -7792,22 +7784,22 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H206" s="5"/>
       <c r="I206" s="2"/>
@@ -7817,22 +7809,22 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="E207" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C207" s="5" t="s">
+      <c r="F207" s="5" t="s">
         <v>658</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="F207" s="5" t="s">
-        <v>661</v>
       </c>
       <c r="H207" s="5"/>
       <c r="I207" s="2"/>
@@ -7842,22 +7834,22 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="H208" s="5"/>
       <c r="I208" s="2"/>
@@ -7867,22 +7859,22 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H209" s="5"/>
       <c r="I209" s="2"/>
@@ -7893,22 +7885,22 @@
     </row>
     <row r="210" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C210" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="F210" s="5" t="s">
         <v>658</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="F210" s="5" t="s">
-        <v>661</v>
       </c>
       <c r="G210" s="0"/>
       <c r="H210" s="5"/>
@@ -7917,22 +7909,22 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>372</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H211" s="5"/>
       <c r="I211" s="2"/>
@@ -7943,22 +7935,22 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="H212" s="5"/>
       <c r="I212" s="2"/>
@@ -7968,22 +7960,22 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="F213" s="5" t="s">
         <v>675</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="F213" s="5" t="s">
-        <v>679</v>
       </c>
       <c r="H213" s="5"/>
       <c r="I213" s="2"/>
@@ -7993,22 +7985,22 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C214" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="D214" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>680</v>
-      </c>
       <c r="F214" s="5" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="H214" s="5"/>
       <c r="I214" s="2"/>
@@ -8018,22 +8010,22 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="H215" s="5"/>
       <c r="I215" s="2"/>
@@ -8043,22 +8035,22 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H216" s="5"/>
       <c r="I216" s="2"/>
@@ -8068,22 +8060,22 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="H217" s="5"/>
       <c r="I217" s="2"/>
@@ -8093,22 +8085,22 @@
     </row>
     <row r="218" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G218" s="0"/>
       <c r="H218" s="5"/>
@@ -8117,22 +8109,22 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="F219" s="5" t="s">
         <v>694</v>
-      </c>
-      <c r="C219" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="F219" s="5" t="s">
-        <v>698</v>
       </c>
       <c r="H219" s="5"/>
       <c r="I219" s="2"/>
@@ -8142,22 +8134,22 @@
     </row>
     <row r="220" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C220" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>699</v>
-      </c>
       <c r="E220" s="6" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G220" s="0"/>
       <c r="H220" s="5"/>
@@ -8170,22 +8162,22 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="H221" s="5"/>
       <c r="I221" s="2"/>
@@ -8195,22 +8187,22 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>239</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="H222" s="5"/>
       <c r="I222" s="2"/>
@@ -8221,22 +8213,22 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="H223" s="5"/>
       <c r="I223" s="2"/>
@@ -8246,22 +8238,22 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="H224" s="5"/>
       <c r="I224" s="2"/>
@@ -8271,22 +8263,22 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H225" s="5"/>
       <c r="I225" s="2"/>
@@ -8296,22 +8288,22 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B226" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="D226" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="C226" s="5" t="s">
+      <c r="E226" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="D226" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>717</v>
-      </c>
       <c r="F226" s="5" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H226" s="5"/>
       <c r="I226" s="2"/>
@@ -8321,22 +8313,22 @@
     </row>
     <row r="227" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>308</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G227" s="0"/>
       <c r="H227" s="5"/>
@@ -8349,22 +8341,22 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="H228" s="5"/>
       <c r="I228" s="2"/>
@@ -8374,22 +8366,22 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="H229" s="5"/>
       <c r="I229" s="2"/>
@@ -8399,22 +8391,22 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>215</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="H230" s="5"/>
       <c r="I230" s="2"/>
@@ -8424,22 +8416,22 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>398</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="H231" s="5"/>
       <c r="I231" s="2"/>
@@ -8449,22 +8441,22 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B232" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="C232" s="5" t="s">
+      <c r="E232" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="D232" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>733</v>
-      </c>
       <c r="F232" s="5" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="H232" s="5"/>
       <c r="I232" s="2"/>
@@ -8474,22 +8466,22 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H233" s="5"/>
       <c r="I233" s="2"/>
@@ -8499,22 +8491,22 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>215</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H234" s="5"/>
       <c r="I234" s="2"/>
@@ -8524,22 +8516,22 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H235" s="5"/>
       <c r="I235" s="2"/>
@@ -8549,22 +8541,22 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>152</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="H236" s="5"/>
       <c r="I236" s="2"/>
@@ -8593,13 +8585,13 @@
         <v>445</v>
       </c>
       <c r="D238" s="18" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E238" s="18" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="F238" s="19" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="G238" s="0"/>
       <c r="H238" s="19"/>
@@ -8621,13 +8613,13 @@
         <v>220</v>
       </c>
       <c r="D239" s="18" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E239" s="18" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F239" s="19" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="G239" s="0"/>
       <c r="H239" s="19"/>
@@ -8649,13 +8641,13 @@
         <v>185</v>
       </c>
       <c r="D240" s="18" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E240" s="18" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="F240" s="19" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -8672,13 +8664,13 @@
         <v>148</v>
       </c>
       <c r="D241" s="18" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E241" s="18" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F241" s="19" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>

--- a/wikiwho/tests/test_wikiwho_simple.xlsx
+++ b/wikiwho/tests/test_wikiwho_simple.xlsx
@@ -362,7 +362,7 @@
     <t>]</t>
   </si>
   <si>
-    <t>FOR_INITIAL_PIERCINGS.pdf Glass for initial piercing]&lt;/ref&gt;</t>
+    <t>Glass for initial piercing]&lt;/ref&gt;</t>
   </si>
   <si>
     <t>366156901</t>
@@ -2584,8 +2584,8 @@
   </sheetPr>
   <dimension ref="1:241"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D195" activeCellId="0" sqref="D195"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/wikiwho/tests/test_wikiwho_simple.xlsx
+++ b/wikiwho/tests/test_wikiwho_simple.xlsx
@@ -425,7 +425,7 @@
     <t>total</t>
   </si>
   <si>
-    <t>although the average total length is much less.&lt;ref name=</t>
+    <t>although the average total length is much less</t>
   </si>
   <si>
     <t>520263878</t>
@@ -1630,7 +1630,7 @@
     <t>459217814</t>
   </si>
   <si>
-    <t>Quraysh and use of bribes.&lt;ref name =</t>
+    <t>Quraysh and use of bribes</t>
   </si>
   <si>
     <t>203173838</t>
@@ -2584,8 +2584,8 @@
   </sheetPr>
   <dimension ref="1:241"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E164" activeCellId="0" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/wikiwho/tests/test_wikiwho_simple.xlsx
+++ b/wikiwho/tests/test_wikiwho_simple.xlsx
@@ -1952,7 +1952,7 @@
     <t>Yegorov and Feoktistov, was launched</t>
   </si>
   <si>
-    <t>South_Western_Main_Line</t>
+    <t>South_Western_main_line</t>
   </si>
   <si>
     <t>286</t>
@@ -2584,8 +2584,8 @@
   </sheetPr>
   <dimension ref="1:241"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E164" activeCellId="0" sqref="E164"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A206" activeCellId="0" sqref="A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/wikiwho/tests/test_wikiwho_simple.xlsx
+++ b/wikiwho/tests/test_wikiwho_simple.xlsx
@@ -5,809 +5,820 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="141" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="test_wikiwho_simple_" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="753">
   <si>
-    <t>Article</t>
-  </si>
-  <si>
-    <t>Number of revisions in this article</t>
-  </si>
-  <si>
-    <t>Revision for whose words the authorship is determined (starting revision)</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Context to identify token in starting revision</t>
-  </si>
-  <si>
-    <t>Correct</t>
-  </si>
-  <si>
-    <t>Amstrad CPC</t>
-  </si>
-  <si>
-    <t>863</t>
-  </si>
-  <si>
-    <t>574978117</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>enhancements include the support of analogue</t>
-  </si>
-  <si>
-    <t>351259464</t>
-  </si>
-  <si>
-    <t>rom</t>
-  </si>
-  <si>
-    <t>equipped with an on-board ROM</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>''Amstrad Spain'') during a short time in 1985. Its</t>
-  </si>
-  <si>
-    <t>445260692</t>
-  </si>
-  <si>
-    <t>968</t>
-  </si>
-  <si>
-    <t>routines and explanations (Soft 968)&lt;/ref&gt;</t>
-  </si>
-  <si>
-    <t>353535318</t>
-  </si>
-  <si>
-    <t>]]</t>
-  </si>
-  <si>
-    <t>custom-designed [[gate array]] to generate</t>
-  </si>
-  <si>
-    <t>353723083</t>
-  </si>
-  <si>
-    <t>comprising</t>
-  </si>
-  <si>
-    <t>[[AMSDOS]] format, comprising 2 kB directory and</t>
-  </si>
-  <si>
-    <t>100699489</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>7207</t>
-  </si>
-  <si>
-    <t>480465006</t>
-  </si>
-  <si>
-    <t>The</t>
-  </si>
-  <si>
-    <t>biodiversity in Antarctica. The Antarctic Treaty Consultative</t>
-  </si>
-  <si>
-    <t>439048860</t>
-  </si>
-  <si>
-    <t>7888558</t>
-  </si>
-  <si>
-    <t>|newspaper=BBC News|publisher=British Broadcasting Corporation|url=http://news.bbc.co.uk/2/hi/science/nature/7888558.stm|accessdate=22 October 2011}}&lt;/ref&gt;</t>
-  </si>
-  <si>
-    <t>271065008</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>of flowering plants, both found in the Antarctic</t>
-  </si>
-  <si>
-    <t>39545040</t>
-  </si>
-  <si>
-    <t>after</t>
-  </si>
-  <si>
-    <t>The [[Weddell Seal]], a "[[true seal]]", is named after [[James Weddell|Sir James Weddell]]</t>
-  </si>
-  <si>
-    <t>48349017</t>
-  </si>
-  <si>
-    <t>issued</t>
-  </si>
-  <si>
-    <t>"wintered over" bar issued to those who remain</t>
-  </si>
-  <si>
-    <t>20732894</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>in area after [[Asia]], [[Africa]], [[North America]]</t>
-  </si>
-  <si>
-    <t>108729158</t>
-  </si>
-  <si>
-    <t>Apollo 11</t>
-  </si>
-  <si>
-    <t>5332</t>
-  </si>
-  <si>
-    <t>480561960</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>Shadow of the Moon: A Challenging Journey to Tranquillity]]</t>
-  </si>
-  <si>
-    <t>302273677</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>[[Mission patch|patch]] of ''Apollo 11'' was designed by Collins, who wanted a symbol</t>
-  </si>
-  <si>
-    <t>49493998</t>
-  </si>
-  <si>
-    <t>Mankind</t>
-  </si>
-  <si>
-    <t>Archive short film|id=gov.archives.arc.7500|name="Apollo 11: One Giant Leap for Mankind"}}</t>
-  </si>
-  <si>
-    <t>477670909</t>
-  </si>
-  <si>
-    <t>judge</t>
-  </si>
-  <si>
-    <t>engineers would be able to judge its post-landing condition.</t>
-  </si>
-  <si>
-    <t>5329985</t>
-  </si>
-  <si>
-    <t>was</t>
-  </si>
-  <si>
-    <t>Herald}}&lt;/ref&gt; The signal was received at [[Goldstone Deep Space</t>
-  </si>
-  <si>
-    <t>68837751</t>
-  </si>
-  <si>
-    <t>presentation</t>
-  </si>
-  <si>
-    <t>President [[Spiro T. Agnew]] honored each astronaut with a presentation of the [[Presidential Medal</t>
-  </si>
-  <si>
-    <t>57847666</t>
-  </si>
-  <si>
-    <t>Armenian Genocide</t>
-  </si>
-  <si>
-    <t>7359</t>
-  </si>
-  <si>
-    <t>479933583</t>
-  </si>
-  <si>
-    <t>historical and communal heritage was yet another key purpose</t>
-  </si>
-  <si>
-    <t>258281101</t>
-  </si>
-  <si>
-    <t>Detlev</t>
-  </si>
-  <si>
-    <t>their actions.&lt;ref&gt;Türkei By Klaus-Detlev. Grothusen.&lt;/ref&gt; However,</t>
-  </si>
-  <si>
-    <t>125989406</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>waves of [[ethnic cleansing]], by both sides. Some foreign policy</t>
-  </si>
-  <si>
-    <t>202978608</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>flattened, and, in several cities (e.g. Van), Armenian quarters were demolished</t>
-  </si>
-  <si>
-    <t>Aleppo</t>
-  </si>
-  <si>
-    <t>File:017.jpg|Aleppo, Syria.</t>
-  </si>
-  <si>
-    <t>346639084</t>
-  </si>
-  <si>
-    <t>ref</t>
-  </si>
-  <si>
-    <t>of World War I | volume = iv |pages = 1153–57}}&lt;/ref&gt;</t>
-  </si>
-  <si>
-    <t>170337078</t>
-  </si>
-  <si>
-    <t>Barack_Obama</t>
-  </si>
-  <si>
-    <t>21827</t>
-  </si>
-  <si>
-    <t>480773610</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>==Notes==</t>
-  </si>
-  <si>
-    <t>75771107</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>|birth_name    = Barack Hussein Obama II</t>
-  </si>
-  <si>
-    <t>431666999</t>
-  </si>
-  <si>
-    <t>earning</t>
-  </si>
-  <si>
-    <t>Chicago before earning his [[Juris Doctor|law degree]].</t>
-  </si>
-  <si>
-    <t>266793108</t>
-  </si>
-  <si>
-    <t>Muammar</t>
-  </si>
-  <si>
-    <t>In March 2011, as forces loyal to [[Muammar Gaddafi]] advanced on rebels across</t>
-  </si>
-  <si>
-    <t>420730024</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>News|accessdate=May 4, 2011}}&lt;/ref&gt; and from many countries around the world.</t>
-  </si>
-  <si>
-    <t>427329153</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>which Obama wanted Congress to approve by the end of 2009.&lt;ref name</t>
-  </si>
-  <si>
-    <t>312905509</t>
-  </si>
-  <si>
-    <t>Bioglass</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>480327915</t>
-  </si>
-  <si>
-    <t>crucial</t>
-  </si>
-  <si>
-    <t>(glass)|Annealing]] is a crucial step in forming</t>
-  </si>
-  <si>
-    <t>363578879</t>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t>Glass for initial piercing]&lt;/ref&gt;</t>
-  </si>
-  <si>
-    <t>366156901</t>
-  </si>
-  <si>
-    <t>seamlessly</t>
-  </si>
-  <si>
-    <t>completely synthetic materials that seamlessly bonds to bone.</t>
-  </si>
-  <si>
-    <t>469639985</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>nonadhering [[fibrous tissue]], and others are completely resorbed</t>
-  </si>
-  <si>
-    <t>0854045724</t>
-  </si>
-  <si>
-    <t>Royal Society of Chemistry, 2002 ISBN 0854045724&lt;/ref&gt;</t>
-  </si>
-  <si>
-    <t>studied</t>
-  </si>
-  <si>
-    <t>the ﬁrst composition studied! Later studies by Hench</t>
-  </si>
-  <si>
-    <t>Bothrops_jararaca</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>559837585</t>
-  </si>
-  <si>
-    <t>enzyme</t>
-  </si>
-  <si>
-    <t>haemocoagulase enzyme derived from the venom</t>
-  </si>
-  <si>
-    <t>518970879</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>sea level to over 1,000 m altitude</t>
-  </si>
-  <si>
-    <t>102213719</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>although the average total length is much less</t>
-  </si>
-  <si>
-    <t>520263878</t>
-  </si>
-  <si>
-    <t>thumb</t>
-  </si>
-  <si>
-    <t>[[File:Jararaca.jpg|thumb|''Bothrops</t>
-  </si>
-  <si>
-    <t>483034603</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>]]. The [[Specific name (zoology)|</t>
-  </si>
-  <si>
-    <t>520255214</t>
-  </si>
-  <si>
-    <t>deciduous</t>
-  </si>
-  <si>
-    <t>The species prefers deciduous tropical forests and savanna country, as well as</t>
-  </si>
-  <si>
-    <t>Chlorine</t>
-  </si>
-  <si>
-    <t>3476</t>
-  </si>
-  <si>
-    <t>574162673</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>under standard conditions, where it</t>
-  </si>
-  <si>
-    <t>74942734</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>2|-}} + 2 OH&lt;sup&gt;</t>
-  </si>
-  <si>
-    <t>302318119</t>
-  </si>
-  <si>
-    <t>hcl</t>
-  </si>
-  <si>
-    <t>:4 HCl + MnO&lt;sub&gt;2</t>
-  </si>
-  <si>
-    <t>190903284</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>http://web.lemoyne.edu/~giunta/thenard.html|quote</t>
-  </si>
-  <si>
-    <t>224392842</t>
-  </si>
-  <si>
-    <t>dating</t>
-  </si>
-  <si>
-    <t>including dating ice and</t>
-  </si>
-  <si>
-    <t>185169</t>
-  </si>
-  <si>
-    <t>Circumcision</t>
-  </si>
-  <si>
-    <t>9983</t>
-  </si>
-  <si>
-    <t>480178699</t>
-  </si>
-  <si>
-    <t>As</t>
-  </si>
-  <si>
-    <t>As a demonstration of one's ability to endure pain</t>
-  </si>
-  <si>
-    <t>411424427</t>
-  </si>
-  <si>
-    <t>surrounds</t>
-  </si>
-  <si>
-    <t>Considerable controversy surrounds neonatal circumcision.</t>
-  </si>
-  <si>
-    <t>95557351</t>
-  </si>
-  <si>
-    <t>Level.png|thumb|300px|Prevalence of circumcision by country]]</t>
-  </si>
-  <si>
-    <t>442576809</t>
-  </si>
-  <si>
-    <t>While</t>
-  </si>
-  <si>
-    <t>While the same study found</t>
-  </si>
-  <si>
-    <t>475661433</t>
-  </si>
-  <si>
-    <t>cases</t>
-  </si>
-  <si>
-    <t>pathological phimosis, and in most cases is not serious;</t>
-  </si>
-  <si>
-    <t>245248120</t>
-  </si>
-  <si>
-    <t>The circumcision rate has declined sharply in Australia</t>
-  </si>
-  <si>
-    <t>208807165</t>
-  </si>
-  <si>
-    <t>Communist Party of China</t>
-  </si>
-  <si>
-    <t>2845</t>
-  </si>
-  <si>
-    <t>574338590</t>
-  </si>
-  <si>
-    <t>elects</t>
-  </si>
-  <si>
-    <t>Central Committee in turn elects the [[Politburo</t>
-  </si>
-  <si>
-    <t>417950</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>[[File:Location of the First Congress</t>
-  </si>
-  <si>
-    <t>372845974</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
-    <t>perspectives {{which|date=December 2012}}, brings</t>
-  </si>
-  <si>
-    <t>528932365</t>
-  </si>
-  <si>
-    <t>translated</t>
-  </si>
-  <si>
-    <t>Communist Party'' translated by Joshua A. Fogel</t>
-  </si>
-  <si>
-    <t>535588545</t>
-  </si>
-  <si>
-    <t>Democritus</t>
-  </si>
-  <si>
-    <t>4076</t>
-  </si>
-  <si>
-    <t>574425926</t>
-  </si>
-  <si>
-    <t>sextus</t>
-  </si>
-  <si>
-    <t>|Sextus]] vii.138.&lt;/ref&gt;</t>
-  </si>
-  <si>
-    <t>302274852</t>
-  </si>
-  <si>
-    <t>with the insight that space by itself</t>
-  </si>
-  <si>
-    <t>265011480</t>
-  </si>
-  <si>
-    <t>king</t>
-  </si>
-  <si>
-    <t>than become a king of Persia'.”</t>
-  </si>
-  <si>
-    <t>85651930</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>[[Image:Cone 3d.png|thumb|250px|right|A</t>
-  </si>
-  <si>
-    <t>212323515</t>
-  </si>
-  <si>
-    <t>explained</t>
-  </si>
-  <si>
-    <t>connections were explained by material</t>
-  </si>
-  <si>
-    <t>349346698</t>
-  </si>
-  <si>
-    <t>[[</t>
-  </si>
-  <si>
-    <t>(40): "[[Aristoxenus]] in his</t>
-  </si>
-  <si>
-    <t>563978874</t>
-  </si>
-  <si>
-    <t>Diana,_Princess_of_Wales</t>
-  </si>
-  <si>
-    <t>10690</t>
-  </si>
-  <si>
-    <t>480720027</t>
-  </si>
-  <si>
-    <t>lure</t>
-  </si>
-  <si>
-    <t>and need for play often lure them directly into harm's</t>
-  </si>
-  <si>
-    <t>8182672</t>
-  </si>
-  <si>
-    <t>constituents</t>
-  </si>
-  <si>
-    <t>bringing home to many of our constituents the human costs of landmines</t>
-  </si>
-  <si>
-    <t>4997218</t>
-  </si>
-  <si>
-    <t>Sandringham</t>
-  </si>
-  <si>
-    <t>fell down a staircase at Sandringham in January</t>
-  </si>
-  <si>
-    <t>467136301</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>rarely deferred to the Prince or to the Royal Family,</t>
-  </si>
-  <si>
-    <t>296041451</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
-  <si>
-    <t>received a lump sum settlement</t>
-  </si>
-  <si>
-    <t>103327713</t>
-  </si>
-  <si>
-    <t>Encryption</t>
-  </si>
-  <si>
-    <t>1143</t>
-  </si>
-  <si>
-    <t>573020570</t>
-  </si>
-  <si>
-    <t>}}</t>
-  </si>
-  <si>
-    <t>{{Reflist}}</t>
-  </si>
-  <si>
-    <t>268549044</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>storage.&lt;ref&gt;Robert Richardson, 2008 CSI</t>
-  </si>
-  <si>
-    <t>281904759</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>slip-up in system design or execution can</t>
-  </si>
-  <si>
-    <t>128896395</t>
-  </si>
-  <si>
-    <t>public</t>
-  </si>
-  <si>
-    <t>Public-key encryption is a relatively recent</t>
-  </si>
-  <si>
-    <t>519501982</t>
-  </si>
-  <si>
-    <t>wireless</t>
-  </si>
-  <si>
-    <t>telephone]]s, [[wireless microphone]]s,</t>
-  </si>
-  <si>
-    <t>159203212</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>a [[message authentication code]] (MAC)</t>
-  </si>
-  <si>
-    <t>9238917</t>
-  </si>
-  <si>
-    <t>Eritrean Defence Forces</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>574004211</t>
-  </si>
-  <si>
-    <t>In the 16th century the port of [[Massawa]]</t>
-  </si>
-  <si>
-    <t>49373254</t>
-  </si>
-  <si>
-    <t>ምክልካል</t>
+    <t xml:space="preserve">Article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of revisions in this article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revision for whose words the authorship is determined (starting revision)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context to identify token in starting revision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amstrad CPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">574978117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enhancements include the support of analogue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">351259464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equipped with an on-board ROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">''Amstrad Spain'') during a short time in 1985. Its</t>
+  </si>
+  <si>
+    <t xml:space="preserve">445260692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">routines and explanations (Soft 968)&lt;/ref&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">353535318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">custom-designed [[gate array]] to generate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">353723083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comprising</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[AMSDOS]] format, comprising 2 kB directory and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100699489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antarctica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480465006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biodiversity in Antarctica. The Antarctic Treaty Consultative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">439048860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7888558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|newspaper=BBC News|publisher=British Broadcasting Corporation|url=http://news.bbc.co.uk/2/hi/science/nature/7888558.stm|accessdate=22 October 2011}}&lt;/ref&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">271065008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of flowering plants, both found in the Antarctic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39545040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The [[Weddell Seal]], a "[[true seal]]", is named after [[James Weddell|Sir James Weddell]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48349017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"wintered over" bar issued to those who remain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20732894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in area after [[Asia]], [[Africa]], [[North America]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108729158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apollo 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480561960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow of the Moon: A Challenging Journey to Tranquillity]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302273677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[Mission patch|patch]] of ''Apollo 11'' was designed by Collins, who wanted a symbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49493998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mankind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archive short film|id=gov.archives.arc.7500|name="Apollo 11: One Giant Leap for Mankind"}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">477670909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">judge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">engineers would be able to judge its post-landing condition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5329985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herald}}&lt;/ref&gt; The signal was received at [[Goldstone Deep Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68837751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President [[Spiro T. Agnew]] honored each astronaut with a presentation of the [[Presidential Medal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57847666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenian Genocide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">479933583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historical and communal heritage was yet another key purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">258281101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detlev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">their actions.&lt;ref&gt;Türkei By Klaus-Detlev. Grothusen.&lt;/ref&gt; However,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125989406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waves of [[ethnic cleansing]], by both sides. Some foreign policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202978608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flattened, and, in several cities (e.g. Van), Armenian quarters were demolished</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleppo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File:017.jpg|Aleppo, Syria.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346639084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of World War I | volume = iv |pages = 1153–57}}&lt;/ref&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170337078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barack_Obama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480773610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">==Notes==</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75771107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|birth_name    = Barack Hussein Obama II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">431666999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago before earning his [[Juris Doctor|law degree]].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">266793108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muammar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In March 2011, as forces loyal to [[Muammar Gaddafi]] advanced on rebels across</t>
+  </si>
+  <si>
+    <t xml:space="preserve">420730024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">many</t>
+  </si>
+  <si>
+    <t xml:space="preserve">News|accessdate=May 4, 2011}}&lt;/ref&gt; and from many countries around the world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">427329153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">which Obama wanted Congress to approve by the end of 2009.&lt;ref name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">312905509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bioglass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480327915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crucial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(glass)|Annealing]] is a crucial step in forming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">363578879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glass for initial piercing]&lt;/ref&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">366156901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seamlessly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completely synthetic materials that seamlessly bonds to bone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">469639985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nonadhering [[fibrous tissue]], and others are completely resorbed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0854045724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royal Society of Chemistry, 2002 ISBN 0854045724&lt;/ref&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">studied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the ﬁrst composition studied! Later studies by Hench</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bothrops_jararaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">559837585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haemocoagulase enzyme derived from the venom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">518970879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sea level to over 1,000 m altitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102213719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">although the average total length is much less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">520263878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thumb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[File:Jararaca.jpg|thumb|''Bothrops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">483034603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">]]. The [[Specific name (zoology)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">520255214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deciduous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The species prefers deciduous tropical forests and savanna country, as well as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">574162673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">under standard conditions, where it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74942734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2|-}} + 2 OH&lt;sup&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302318119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hcl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:4 HCl + MnO&lt;sub&gt;2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190903284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://web.lemoyne.edu/~giunta/thenard.html|quote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">224392842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">including dating ice and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circumcision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480178699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a demonstration of one's ability to endure pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">411424427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surrounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considerable controversy surrounds neonatal circumcision.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95557351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level.png|thumb|300px|Prevalence of circumcision by country]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">442576809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While the same study found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">475661433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pathological phimosis, and in most cases is not serious;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245248120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The circumcision rate has declined sharply in Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">208807165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communist Party of China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">574338590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Committee in turn elects the [[Politburo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">417950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[File:Location of the First Congress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">372845974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perspectives {{which|date=December 2012}}, brings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">528932365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communist Party'' translated by Joshua A. Fogel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">535588545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democritus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">574425926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sextus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|Sextus]] vii.138.&lt;/ref&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302274852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with the insight that space by itself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">265011480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">king</t>
+  </si>
+  <si>
+    <t xml:space="preserve">than become a king of Persia'.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85651930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[Image:Cone 3d.png|thumb|250px|right|A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212323515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connections were explained by material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">349346698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(40): "[[Aristoxenus]] in his</t>
+  </si>
+  <si>
+    <t xml:space="preserve">563978874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana,_Princess_of_Wales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480720027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and need for play often lure them directly into harm's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8182672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constituents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bringing home to many of our constituents the human costs of landmines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4997218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandringham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fell down a staircase at Sandringham in January</t>
+  </si>
+  <si>
+    <t xml:space="preserve">467136301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rarely deferred to the Prince or to the Royal Family,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296041451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">received a lump sum settlement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103327713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encryption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">573020570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{Reflist}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">268549044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage.&lt;ref&gt;Robert Richardson, 2008 CSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">281904759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slip-up in system design or execution can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128896395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public-key encryption is a relatively recent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">519501982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wireless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">telephone]]s, [[wireless microphone]]s,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159203212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a [[message authentication code]] (MAC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9238917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrean Defence Forces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">574004211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the 16th century the port of [[Massawa]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49373254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ምክልካል</t>
   </si>
   <si>
     <r>
-      <t>| native_name =</t>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">| native_name =</t>
     </r>
     <r>
       <rPr>
@@ -816,7 +827,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>ምክልካል ሃይልታት ኣርትራ</t>
+      <t xml:space="preserve">ምክልካል ሃይልታት ኣርትራ</t>
     </r>
     <r>
       <rPr>
@@ -825,368 +836,368 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>&lt;br /&gt;</t>
+      <t xml:space="preserve">&lt;br /&gt;</t>
     </r>
   </si>
   <si>
-    <t>112225322</t>
-  </si>
-  <si>
-    <t>reason for the military's large size is [[conscription]]</t>
-  </si>
-  <si>
-    <t>524261200</t>
-  </si>
-  <si>
-    <t>career</t>
-  </si>
-  <si>
-    <t>composed fully of career soldiers would not</t>
-  </si>
-  <si>
-    <t>59876009</t>
-  </si>
-  <si>
-    <t>[[National Assembly of Eritrea|National Assembly]]</t>
-  </si>
-  <si>
-    <t>81318111</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>Dan| year = 1997| month</t>
-  </si>
-  <si>
-    <t>76669667</t>
-  </si>
-  <si>
-    <t>European Free Trade Association</t>
-  </si>
-  <si>
-    <t>691</t>
-  </si>
-  <si>
-    <t>573013414</t>
-  </si>
-  <si>
-    <t>direct membership in the EEA for</t>
-  </si>
-  <si>
-    <t>549063890</t>
-  </si>
-  <si>
-    <t>the Council, the European Economic</t>
-  </si>
-  <si>
-    <t>Kingdom of Norway
+    <t xml:space="preserve">112225322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reason for the military's large size is [[conscription]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">524261200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">career</t>
+  </si>
+  <si>
+    <t xml:space="preserve">composed fully of career soldiers would not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59876009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[National Assembly of Eritrea|National Assembly]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81318111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dan| year = 1997| month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76669667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Free Trade Association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">573013414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direct membership in the EEA for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">549063890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the Council, the European Economic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingdom of Norway
 |</t>
   </si>
   <si>
-    <t>199684622</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>&lt;ref name=IMF_Switzerland&gt;{{cite web</t>
-  </si>
-  <si>
-    <t>569218033</t>
-  </si>
-  <si>
-    <t>european</t>
-  </si>
-  <si>
-    <t>[[File:EU and EFTA.svg|thumb|Members of the European Union (blue)</t>
-  </si>
-  <si>
-    <t>316237404</t>
-  </si>
-  <si>
-    <t>administrative</t>
-  </si>
-  <si>
-    <t>microstates have sufficient administrative capabilities to</t>
-  </si>
-  <si>
-    <t>Evolution</t>
-  </si>
-  <si>
-    <t>13706</t>
-  </si>
-  <si>
-    <t>478123979</t>
-  </si>
-  <si>
-    <t>af</t>
-  </si>
-  <si>
-    <t>[[af:Evolusie]]</t>
-  </si>
-  <si>
-    <t>22030668</t>
-  </si>
-  <si>
-    <t>1925</t>
-  </si>
-  <si>
-    <t>[[Scopes Trial]] decision of 1925 caused the subject to become very</t>
-  </si>
-  <si>
-    <t>305144970</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>as can be seen by looking at its near relatives</t>
-  </si>
-  <si>
-    <t>135770029</t>
-  </si>
-  <si>
-    <t>effect]] causes rapid speciation after an increase in [[inbreeding]]</t>
-  </si>
-  <si>
-    <t>451865800</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>relationship as the plants provide the fungi with sugars from</t>
-  </si>
-  <si>
-    <t>135342071</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>the animal's [[germ cell]]s to produce offspring.</t>
-  </si>
-  <si>
-    <t>Geography of El Salvador</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>574195509</t>
-  </si>
-  <si>
-    <t>cia</t>
-  </si>
-  <si>
-    <t>*{{CIA World Factbook}}</t>
-  </si>
-  <si>
-    <t>269718597</t>
-  </si>
-  <si>
-    <t>econ</t>
-  </si>
-  <si>
-    <t>[[Image:El salvador econ 1980.jpg|thumb|right|300px|Economic</t>
-  </si>
-  <si>
-    <t>26684473</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>The motion of these plates causes the area's [[earthquake]]</t>
-  </si>
-  <si>
-    <t>26684250</t>
-  </si>
-  <si>
-    <t>ocean</t>
-  </si>
-  <si>
-    <t>constituting the ocean floor are forced down, they</t>
-  </si>
-  <si>
-    <t>ranges</t>
-  </si>
-  <si>
-    <t>The mountain ranges and central plateau,</t>
-  </si>
-  <si>
-    <t>slightly</t>
-  </si>
-  <si>
-    <t>This is slightly smaller than the [[U.S. state]]</t>
-  </si>
-  <si>
-    <t>457062</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>15566</t>
-  </si>
-  <si>
-    <t>480958857</t>
-  </si>
-  <si>
-    <t>Allemagne</t>
-  </si>
-  <si>
-    <t>[[File:Pyramide Allemagne.PNG|thumb|left|Germany's [[population pyramid]] in 2005]]</t>
-  </si>
-  <si>
-    <t>396518693</t>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>===Science and technology===</t>
-  </si>
-  <si>
-    <t>43149668</t>
-  </si>
-  <si>
-    <t>central position in Europe, Germany is a transport hub</t>
-  </si>
-  <si>
-    <t>134275052</t>
-  </si>
-  <si>
-    <t>particularly</t>
-  </si>
-  <si>
-    <t>decreased in recent decades, particularly among Protestants.</t>
-  </si>
-  <si>
-    <t>466110130</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>[[Karl Benz]] helped shape modern automotive and air transportation technology</t>
-  </si>
-  <si>
-    <t>93488597</t>
-  </si>
-  <si>
-    <t>Vertreibungsverbrechen</t>
-  </si>
-  <si>
-    <t>&lt;ref&gt;Bonn : Kulturstiftung der Deutschen Vertriebenen, ''Vertreibung und Vertreibungsverbrechen</t>
-  </si>
-  <si>
-    <t>434496752</t>
-  </si>
-  <si>
-    <t>Home and Away</t>
-  </si>
-  <si>
-    <t>13035</t>
-  </si>
-  <si>
-    <t>573240275</t>
-  </si>
-  <si>
-    <t>beach</t>
-  </si>
-  <si>
-    <t>and at Fisherman's Beach, [[Collaroy]]</t>
-  </si>
-  <si>
-    <t>81543195</t>
-  </si>
-  <si>
-    <t>www</t>
-  </si>
-  <si>
-    <t>&lt;ref name="Whittingham"&gt;{{cite web|url=http://www.c21media.net/archives/117214|title=TVNZ swipes</t>
-  </si>
-  <si>
-    <t>563011743</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>''Home and Away'' from 1999-2002 and [[Trouble (TV channel)|</t>
-  </si>
-  <si>
-    <t>547651622</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>every episode. From June 2006 to November 2008</t>
-  </si>
-  <si>
-    <t>253398702</t>
-  </si>
-  <si>
-    <t>we are promoting the next episode."&lt;ref&gt;{{cite news |last</t>
-  </si>
-  <si>
-    <t>303123672</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>#Book|Home and Away: Hearts Divided]]&lt;ref&gt;</t>
-  </si>
-  <si>
-    <t>393181153</t>
-  </si>
-  <si>
-    <t>Homeopathy</t>
-  </si>
-  <si>
-    <t>9141</t>
-  </si>
-  <si>
-    <t>479765637</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>|accessdate =2007-08-04
+    <t xml:space="preserve">199684622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ref name=IMF_Switzerland&gt;{{cite web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">569218033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">european</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[File:EU and EFTA.svg|thumb|Members of the European Union (blue)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">316237404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administrative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">microstates have sufficient administrative capabilities to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">478123979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">af</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[af:Evolusie]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22030668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[Scopes Trial]] decision of 1925 caused the subject to become very</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305144970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as can be seen by looking at its near relatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135770029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effect]] causes rapid speciation after an increase in [[inbreeding]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">451865800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relationship as the plants provide the fungi with sugars from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135342071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the animal's [[germ cell]]s to produce offspring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geography of El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">574195509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*{{CIA World Factbook}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">269718597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">econ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[Image:El salvador econ 1980.jpg|thumb|right|300px|Economic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26684473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">causes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The motion of these plates causes the area's [[earthquake]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26684250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constituting the ocean floor are forced down, they</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mountain ranges and central plateau,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slightly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is slightly smaller than the [[U.S. state]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">457062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480958857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allemagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[File:Pyramide Allemagne.PNG|thumb|left|Germany's [[population pyramid]] in 2005]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">396518693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">===Science and technology===</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43149668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">central position in Europe, Germany is a transport hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134275052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">particularly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decreased in recent decades, particularly among Protestants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">466110130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[Karl Benz]] helped shape modern automotive and air transportation technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93488597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertreibungsverbrechen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ref&gt;Bonn : Kulturstiftung der Deutschen Vertriebenen, ''Vertreibung und Vertreibungsverbrechen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">434496752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home and Away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">573240275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and at Fisherman's Beach, [[Collaroy]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81543195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ref name="Whittingham"&gt;{{cite web|url=http://www.c21media.net/archives/117214|title=TVNZ swipes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">563011743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">''Home and Away'' from 1999-2002 and [[Trouble (TV channel)|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">547651622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June</t>
+  </si>
+  <si>
+    <t xml:space="preserve">every episode. From June 2006 to November 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">253398702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we are promoting the next episode."&lt;ref&gt;{{cite news |last</t>
+  </si>
+  <si>
+    <t xml:space="preserve">303123672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Book|Home and Away: Hearts Divided]]&lt;ref&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">393181153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homeopathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">479765637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|accessdate =2007-08-04
 |author =Little D
 |title =Simillimum.com</t>
   </si>
   <si>
-    <t>279280908</t>
-  </si>
-  <si>
-    <t>vitalism</t>
-  </si>
-  <si>
-    <t>Homeopathy is a [[vitalism|vitalist]] philosophy that</t>
-  </si>
-  <si>
-    <t>155021551</t>
-  </si>
-  <si>
-    <t>Ont</t>
-  </si>
-  <si>
-    <t>issue=4 |pages=126–7 |pmc=1948865 |journal=Current oncology (Toronto, Ont.) |postscript=.}}&lt;/ref&gt;</t>
-  </si>
-  <si>
-    <t>468898492</t>
-  </si>
-  <si>
-    <t>publisher</t>
-  </si>
-  <si>
-    <t>|title=Homeopathic pharmacy: theory and practice
+    <t xml:space="preserve">279280908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vitalism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homeopathy is a [[vitalism|vitalist]] philosophy that</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155021551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">issue=4 |pages=126–7 |pmc=1948865 |journal=Current oncology (Toronto, Ont.) |postscript=.}}&lt;/ref&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">468898492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|title=Homeopathic pharmacy: theory and practice
  |edition=2
  |publisher=Elsevier Health Sciences
  |page=52
@@ -1194,1116 +1205,1116 @@
 }}&lt;/ref&gt; During the proving process, Hahnemann</t>
   </si>
   <si>
-    <t>280678108</t>
-  </si>
-  <si>
-    <t>conflicts</t>
-  </si>
-  <si>
-    <t>into the body and conflicts with scientific studies</t>
-  </si>
-  <si>
-    <t>155320067</t>
-  </si>
-  <si>
-    <t>where</t>
-  </si>
-  <si>
-    <t>usually diluted to the point where there are no molecules</t>
-  </si>
-  <si>
-    <t>126867887</t>
-  </si>
-  <si>
-    <t>Iraq War</t>
-  </si>
-  <si>
-    <t>14557</t>
-  </si>
-  <si>
-    <t>481109117</t>
-  </si>
-  <si>
-    <t>organization/77707.pdf&lt;/ref&gt;&lt;/small&gt;&lt;br&gt;&lt;br&gt;
+    <t xml:space="preserve">280678108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conflicts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into the body and conflicts with scientific studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155320067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usually diluted to the point where there are no molecules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126867887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq War</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">481109117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organization/77707.pdf&lt;/ref&gt;&lt;/small&gt;&lt;br&gt;&lt;br&gt;
 '''[[Multi-National Force&amp;nbsp;– Iraq|Coalition Forces]]'''&lt;br&gt;</t>
   </si>
   <si>
-    <t>406350628</t>
-  </si>
-  <si>
-    <t>By</t>
-  </si>
-  <si>
-    <t>2010}}|242&amp;nbsp;KB}}. By Gilbert Burnham, Riyadh Lafta,</t>
-  </si>
-  <si>
-    <t>87192121</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>firefight that followed a car bomb explosion</t>
-  </si>
-  <si>
-    <t>159432579</t>
-  </si>
-  <si>
-    <t>guerrilla</t>
-  </si>
-  <si>
-    <t>sharp surge in guerrilla attacks ushered</t>
-  </si>
-  <si>
-    <t>39258112</t>
-  </si>
-  <si>
-    <t>oil fields there and the important ports, supported by warships</t>
-  </si>
-  <si>
-    <t>377143000</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>the mandate was renewed on December 18, 2007,</t>
-  </si>
-  <si>
-    <t>249204227</t>
-  </si>
-  <si>
-    <t>Islamophobia</t>
-  </si>
-  <si>
-    <t>5079</t>
-  </si>
-  <si>
-    <t>468968330</t>
-  </si>
-  <si>
-    <t>Genealogy of today's Islamophobia"]{{dead link</t>
-  </si>
-  <si>
-    <t>126647965</t>
-  </si>
-  <si>
-    <t>Islamic totalitarianism with hatred of Muslims.</t>
-  </si>
-  <si>
-    <t>462012990</t>
-  </si>
-  <si>
-    <t>&lt;ref&gt;Edward W. Said, ‘Orientalism Reconsidered’ in</t>
-  </si>
-  <si>
-    <t>205333624</t>
-  </si>
-  <si>
-    <t>each</t>
-  </si>
-  <si>
-    <t>5 December 2005.&lt;/ref&gt; He writes that each country has its extremes, citing</t>
-  </si>
-  <si>
-    <t>72557725</t>
-  </si>
-  <si>
-    <t>and [[Council of Europe]], adopted a declaration to combat "genocide,</t>
-  </si>
-  <si>
-    <t>461495849</t>
-  </si>
-  <si>
-    <t>argues</t>
-  </si>
-  <si>
-    <t>birth, is despicable", but argues that "it is not a form of</t>
-  </si>
-  <si>
-    <t>468420752</t>
-  </si>
-  <si>
-    <t>Jack the Ripper</t>
-  </si>
-  <si>
-    <t>7964</t>
-  </si>
-  <si>
-    <t>481005511</t>
-  </si>
-  <si>
-    <t>Star (London)|The Star]]'', {{Nowrap</t>
-  </si>
-  <si>
-    <t>330835839</t>
-  </si>
-  <si>
-    <t>suffered</t>
-  </si>
-  <si>
-    <t>she had suffered 39 stab wounds. The savagery</t>
-  </si>
-  <si>
-    <t>333693762</t>
-  </si>
-  <si>
-    <t>Over 300 are preserved at the Corporation of London Records</t>
-  </si>
-  <si>
-    <t>320403075</t>
-  </si>
-  <si>
-    <t>ladys</t>
-  </si>
-  <si>
-    <t>To "clip the ladys ([[sic]]) ears off" gained</t>
-  </si>
-  <si>
-    <t>7104305</t>
-  </si>
-  <si>
-    <t>Donald</t>
-  </si>
-  <si>
-    <t>Of letters regarding the case.&lt;ref&gt;[[Donald McCormick]] estimated "probably at least 2000"</t>
-  </si>
-  <si>
-    <t>cartoon by [[John Tenniel]] ({{Nowrap|22 September}}</t>
-  </si>
-  <si>
-    <t>369117194</t>
-  </si>
-  <si>
-    <t>Jesus</t>
-  </si>
-  <si>
-    <t>24210</t>
-  </si>
-  <si>
-    <t>481376127</t>
-  </si>
-  <si>
-    <t>ref&gt;''Cambridge companion to Jesus'' by Markus N. A. Bockmuehl 2001 Cambridge Univ Press ISBN 9780521796781 pages 123-124&lt;/ref</t>
-  </si>
-  <si>
-    <t>442128421</t>
-  </si>
-  <si>
-    <t>Many of the miracles in the gospels</t>
-  </si>
-  <si>
-    <t>435999249</t>
-  </si>
-  <si>
-    <t>believe in some form of the doctrine of</t>
-  </si>
-  <si>
-    <t>452325582</t>
-  </si>
-  <si>
-    <t>0802839312</t>
-  </si>
-  <si>
-    <t>by James D. G. Dunn 2003 ISBN 0802839312 page 339&lt;/ref&gt;</t>
-  </si>
-  <si>
-    <t>475463224</t>
-  </si>
-  <si>
-    <t>theories about the race of Jesus were advanced,</t>
-  </si>
-  <si>
-    <t>452097741</t>
-  </si>
-  <si>
-    <t>KLM destinations</t>
-  </si>
-  <si>
-    <t>1447</t>
-  </si>
-  <si>
-    <t>481177397</t>
-  </si>
-  <si>
-    <t>airline</t>
-  </si>
-  <si>
-    <t>[[Category:Lists of airline destinations]]</t>
-  </si>
-  <si>
-    <t>22222048</t>
-  </si>
-  <si>
-    <t>KLM</t>
-  </si>
-  <si>
-    <t>[[id:Daftar bandar udara tujuan KLM]]</t>
-  </si>
-  <si>
-    <t>82567084</t>
-  </si>
-  <si>
-    <t>scheduled</t>
-  </si>
-  <si>
-    <t>according to their scheduled services.&lt;ref name="klm"&gt;</t>
-  </si>
-  <si>
-    <t>458558522</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>bgcolor=#DCDCDC|[[Groningen Airport Eelde]] &lt;sup&gt;</t>
-  </si>
-  <si>
-    <t>458792715</t>
-  </si>
-  <si>
-    <t>FORCETOC</t>
-  </si>
-  <si>
-    <t>__FORCETOC__</t>
-  </si>
-  <si>
-    <t>459197823</t>
-  </si>
-  <si>
-    <t>[[Léopold Sédar Senghor International Airport]] &lt;sup&gt;</t>
-  </si>
-  <si>
-    <t>458732268</t>
-  </si>
-  <si>
-    <t>Lemur</t>
-  </si>
-  <si>
-    <t>2670</t>
-  </si>
-  <si>
-    <t>480536972</t>
-  </si>
-  <si>
-    <t>by</t>
-  </si>
-  <si>
-    <t>higher-level taxonomy by defining lemurs as monophyletic</t>
-  </si>
-  <si>
-    <t>357339699</t>
-  </si>
-  <si>
-    <t>will</t>
-  </si>
-  <si>
-    <t>along with their young, will share nests with other</t>
-  </si>
-  <si>
-    <t>352675913</t>
-  </si>
-  <si>
-    <t>slight</t>
-  </si>
-  <si>
-    <t>anthropoid primates due to a slight difference in the</t>
-  </si>
-  <si>
-    <t>enclosures have been observed eating [[poison</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>strides have been made in lemur studies and many</t>
-  </si>
-  <si>
-    <t>include</t>
-  </si>
-  <si>
-    <t>These traits can include seasonal fat storage,</t>
-  </si>
-  <si>
-    <t>Macedonians (ethnic group)</t>
-  </si>
-  <si>
-    <t>6117</t>
-  </si>
-  <si>
-    <t>479979735</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
-    <t>pro-IMRO sympathies of the population in their cause.</t>
-  </si>
-  <si>
-    <t>464580094</t>
-  </si>
-  <si>
-    <t>The church gained autonomy from the [[Serbian Orthodox Church]]</t>
-  </si>
-  <si>
-    <t>356053363</t>
-  </si>
-  <si>
-    <t>according</t>
-  </si>
-  <si>
-    <t>of 'ancestry' which, according to Members of the Australian-Macedonian Community</t>
-  </si>
-  <si>
-    <t>75919044</t>
-  </si>
-  <si>
-    <t>organizations</t>
-  </si>
-  <si>
-    <t>the emblem of several political parties, organizations and sports clubs.</t>
-  </si>
-  <si>
-    <t>248559932</t>
-  </si>
-  <si>
-    <t>Macedonians_(ethnic_group)</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>northern Greece, and southern [[Serbia]], mostly</t>
-  </si>
-  <si>
-    <t>9088682</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>ejhg/journal</t>
-  </si>
-  <si>
-    <t>187465136</t>
-  </si>
-  <si>
-    <t>Muhammad</t>
-  </si>
-  <si>
-    <t>17413</t>
-  </si>
-  <si>
-    <t>481126024</t>
-  </si>
-  <si>
-    <t>during Muhammad's early lifetime.&lt;ref name="EoI-Muhammad"/&gt;</t>
-  </si>
-  <si>
-    <t>141764169</t>
-  </si>
-  <si>
-    <t>Unicode</t>
-  </si>
-  <si>
-    <t>|date=2009-10-01 |work=The Unicode Standard, Version 5.2</t>
-  </si>
-  <si>
-    <t>459225510</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>Abu Sufyan's troops were unprepared for the fortifications they were</t>
-  </si>
-  <si>
-    <t>152603502</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>petty or trifling. His speech was a string of cascading pearls,</t>
-  </si>
-  <si>
-    <t>459217814</t>
-  </si>
-  <si>
-    <t>Quraysh and use of bribes</t>
-  </si>
-  <si>
-    <t>203173838</t>
-  </si>
-  <si>
-    <t>pagan</t>
-  </si>
-  <si>
-    <t>The first group of pagan converts to Islam in Medina</t>
-  </si>
-  <si>
-    <t>188705740</t>
-  </si>
-  <si>
-    <t>Newberg, Oregon</t>
-  </si>
-  <si>
-    <t>287</t>
-  </si>
-  <si>
-    <t>464181136</t>
-  </si>
-  <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>'''Roger's Landing''' for Rogers who founded the settlement</t>
-  </si>
-  <si>
-    <t>341434668</t>
-  </si>
-  <si>
-    <t>[[George Fox University]], and a new campus of [[Portland Community College]]</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>|Oct low F = 43</t>
-  </si>
-  <si>
-    <t>380822459</t>
-  </si>
-  <si>
-    <t>George Fox University is the only evangelical</t>
-  </si>
-  <si>
-    <t>189288958</t>
-  </si>
-  <si>
-    <t>author=Lewis A. McArthur |year=1991</t>
-  </si>
-  <si>
-    <t>360230406</t>
-  </si>
-  <si>
-    <t>households</t>
-  </si>
-  <si>
-    <t>There were 6,099 households out of which 40.2% had children</t>
-  </si>
-  <si>
-    <t>499684</t>
-  </si>
-  <si>
-    <t>Race_and_intelligence</t>
-  </si>
-  <si>
-    <t>11041</t>
-  </si>
-  <si>
-    <t>481398958</t>
-  </si>
-  <si>
-    <t>such</t>
-  </si>
-  <si>
-    <t>[[malnutrition]], [[infectious diseases]] such as [[meningitis]],</t>
-  </si>
-  <si>
-    <t>409787246</t>
-  </si>
-  <si>
-    <t>|date=12 February 2005</t>
-  </si>
-  <si>
-    <t>478210588</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>relationship between brain size and a number of cognitive measures</t>
-  </si>
-  <si>
-    <t>353076935</t>
-  </si>
-  <si>
-    <t>org</t>
-  </si>
-  <si>
-    <t>386–98 |url=http://brain.oxfordjournals.org/</t>
-  </si>
-  <si>
-    <t>IQs do not support evolutionary theories of intelligence |first=Jelte M</t>
-  </si>
-  <si>
-    <t>systematically</t>
-  </si>
-  <si>
-    <t>culture or motivation could systematically encourage black performance on one</t>
-  </si>
-  <si>
-    <t>452766286</t>
-  </si>
-  <si>
-    <t>Rhapsody_on_a_Theme_of_Paganini</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>563616407</t>
-  </si>
-  <si>
-    <t>''Paganini'' was premiered in 1939 by [[The Royal Ballet]]</t>
-  </si>
-  <si>
-    <t>207140698</t>
-  </si>
-  <si>
-    <t>28Rachmaninoff%2C_Sergei%29|cname=Rhapsody</t>
-  </si>
-  <si>
-    <t>89480162</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>#v=onepage&amp;q&amp;f=false|accessdate=2013/03/18</t>
-  </si>
-  <si>
-    <t>545277594</t>
-  </si>
-  <si>
-    <t>guitar</t>
-  </si>
-  <si>
-    <t>been turned into a [[guitar]] player in Fokine's scenario</t>
-  </si>
-  <si>
-    <t>286273879</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>a9ly90Y3WYyiGAwekMFKnPoGJ1I&amp;hl=en&amp;ei=SJv0SfSOC5GCkQXx1aD3Cg&amp;sa=X&amp;oi=book_result&amp;ct=</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>|[[Philadelphia Orchestra]]
+    <t xml:space="preserve">406350628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010}}|242&amp;nbsp;KB}}. By Gilbert Burnham, Riyadh Lafta,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87192121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firefight that followed a car bomb explosion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159432579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guerrilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sharp surge in guerrilla attacks ushered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39258112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oil fields there and the important ports, supported by warships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">377143000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the mandate was renewed on December 18, 2007,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">249204227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islamophobia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">468968330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genealogy of today's Islamophobia"]{{dead link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126647965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islamic totalitarianism with hatred of Muslims.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">462012990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ref&gt;Edward W. Said, ‘Orientalism Reconsidered’ in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205333624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 December 2005.&lt;/ref&gt; He writes that each country has its extremes, citing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72557725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and [[Council of Europe]], adopted a declaration to combat "genocide,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">461495849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">argues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birth, is despicable", but argues that "it is not a form of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">468420752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack the Ripper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">481005511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Star (London)|The Star]]'', {{Nowrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330835839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suffered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">she had suffered 39 stab wounds. The savagery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333693762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 300 are preserved at the Corporation of London Records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">320403075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ladys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To "clip the ladys ([[sic]]) ears off" gained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7104305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of letters regarding the case.&lt;ref&gt;[[Donald McCormick]] estimated "probably at least 2000"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cartoon by [[John Tenniel]] ({{Nowrap|22 September}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">369117194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">481376127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref&gt;''Cambridge companion to Jesus'' by Markus N. A. Bockmuehl 2001 Cambridge Univ Press ISBN 9780521796781 pages 123-124&lt;/ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">442128421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many of the miracles in the gospels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">435999249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">believe in some form of the doctrine of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">452325582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0802839312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by James D. G. Dunn 2003 ISBN 0802839312 page 339&lt;/ref&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">475463224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">theories about the race of Jesus were advanced,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">452097741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of KLM destinations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">481177397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">airline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[Category:Lists of airline destinations]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22222048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[id:Daftar bandar udara tujuan KLM]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82567084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scheduled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">according to their scheduled services.&lt;ref name="klm"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">458558522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bgcolor=#DCDCDC|[[Groningen Airport Eelde]] &lt;sup&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">458792715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORCETOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">__FORCETOC__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">459197823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[Léopold Sédar Senghor International Airport]] &lt;sup&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">458732268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480536972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">higher-level taxonomy by defining lemurs as monophyletic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">357339699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will</t>
+  </si>
+  <si>
+    <t xml:space="preserve">along with their young, will share nests with other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">352675913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anthropoid primates due to a slight difference in the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enclosures have been observed eating [[poison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">made</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strides have been made in lemur studies and many</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These traits can include seasonal fat storage,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macedonians (ethnic group)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">479979735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pro-IMRO sympathies of the population in their cause.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">464580094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The church gained autonomy from the [[Serbian Orthodox Church]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">356053363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">according</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of 'ancestry' which, according to Members of the Australian-Macedonian Community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75919044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organizations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the emblem of several political parties, organizations and sports clubs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">248559932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macedonians_(ethnic_group)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">northern Greece, and southern [[Serbia]], mostly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9088682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ejhg/journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187465136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">481126024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">during Muhammad's early lifetime.&lt;ref name="EoI-Muhammad"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141764169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unicode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|date=2009-10-01 |work=The Unicode Standard, Version 5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">459225510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abu Sufyan's troops were unprepared for the fortifications they were</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152603502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">petty or trifling. His speech was a string of cascading pearls,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">459217814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quraysh and use of bribes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203173838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pagan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first group of pagan converts to Islam in Medina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188705740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newberg, Oregon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">464181136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">who</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'''Roger's Landing''' for Rogers who founded the settlement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">341434668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[George Fox University]], and a new campus of [[Portland Community College]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|Oct low F = 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">380822459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George Fox University is the only evangelical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189288958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author=Lewis A. McArthur |year=1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360230406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">households</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There were 6,099 households out of which 40.2% had children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">499684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Race_and_intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">481398958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">such</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[malnutrition]], [[infectious diseases]] such as [[meningitis]],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">409787246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|date=12 February 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">478210588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relationship between brain size and a number of cognitive measures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">353076935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">386–98 |url=http://brain.oxfordjournals.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQs do not support evolutionary theories of intelligence |first=Jelte M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systematically</t>
+  </si>
+  <si>
+    <t xml:space="preserve">culture or motivation could systematically encourage black performance on one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">452766286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhapsody_on_a_Theme_of_Paganini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">563616407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">''Paganini'' was premiered in 1939 by [[The Royal Ballet]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">207140698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28Rachmaninoff%2C_Sergei%29|cname=Rhapsody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89480162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#v=onepage&amp;q&amp;f=false|accessdate=2013/03/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">545277594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guitar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">been turned into a [[guitar]] player in Fokine's scenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">286273879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a9ly90Y3WYyiGAwekMFKnPoGJ1I&amp;hl=en&amp;ei=SJv0SfSOC5GCkQXx1aD3Cg&amp;sa=X&amp;oi=book_result&amp;ct=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|[[Philadelphia Orchestra]]
 |align="center"|[[RCA Red Seal]]</t>
   </si>
   <si>
-    <t>448599226</t>
-  </si>
-  <si>
-    <t>Robert Hues</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>462751809</t>
-  </si>
-  <si>
-    <t>he</t>
-  </si>
-  <si>
-    <t>he was one of the</t>
-  </si>
-  <si>
-    <t>251139604</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>[[circumnavigation|circumnavigated]] the globe with Cavendish between 1586 and</t>
-  </si>
-  <si>
-    <t>printer to the Queen's Most Excellent Majestie|year=1589</t>
-  </si>
-  <si>
-    <t>solator</t>
-  </si>
-  <si>
-    <t>cui solator accessit in arca Londinensi. Quo</t>
-  </si>
-  <si>
-    <t>generally believed to be an error as no such person was known</t>
-  </si>
-  <si>
-    <t>critiqued</t>
-  </si>
-  <si>
-    <t>page=123|oclc=1981442}}, critiqued by Shirley, ''Thomas</t>
-  </si>
-  <si>
-    <t>292186344</t>
-  </si>
-  <si>
-    <t>Saturn's_moons_in_fiction</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>566618655</t>
-  </si>
-  <si>
-    <t>survivors</t>
-  </si>
-  <si>
-    <t>find possible survivors transmitting a distress signal</t>
-  </si>
-  <si>
-    <t>506114944</t>
-  </si>
-  <si>
-    <t>the Librarium Daemonicum, a repositary of the knowledge</t>
-  </si>
-  <si>
-    <t>138184340</t>
-  </si>
-  <si>
-    <t>* "Outpost of the Eons" by Dirk Wylie (pseudonym of Joseph</t>
-  </si>
-  <si>
-    <t>419171504</t>
-  </si>
-  <si>
-    <t>sourcebook ''GURPS Space: Terradyne'', the Terradyne</t>
-  </si>
-  <si>
-    <t>477980732</t>
-  </si>
-  <si>
-    <t>jpg</t>
-  </si>
-  <si>
-    <t>[[Image:Dione color south.jpg|right|80px|Dione]]</t>
-  </si>
-  <si>
-    <t>135546415</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>of human colonization and mining called "M-Base".</t>
-  </si>
-  <si>
-    <t>127975759</t>
-  </si>
-  <si>
-    <t>Sergei Korolev</t>
-  </si>
-  <si>
-    <t>893</t>
-  </si>
-  <si>
-    <t>479371650</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>Sergei Korolev.jpg|Image of 1969, 10k stamp.]][</t>
-  </si>
-  <si>
-    <t>140290515</t>
-  </si>
-  <si>
-    <t>gagarin</t>
-  </si>
-  <si>
-    <t>[http://astrotalkuk.org/2011/07/25/yuri-gagarin-statue-in-london/</t>
-  </si>
-  <si>
-    <t>444607919</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>quality checks. It was successfully launched on 3 November and the dog was placed</t>
-  </si>
-  <si>
-    <t>14531720</t>
-  </si>
-  <si>
-    <t>Vladimirov</t>
-  </si>
-  <si>
-    <t>Leonid Vladimirov related the following description of Korolev</t>
-  </si>
-  <si>
-    <t>14836512</t>
-  </si>
-  <si>
-    <t>world's first space walk. The flight very nearly ended in</t>
-  </si>
-  <si>
-    <t>Yegorov and Feoktistov, was launched</t>
-  </si>
-  <si>
-    <t>South_Western_main_line</t>
-  </si>
-  <si>
-    <t>286</t>
-  </si>
-  <si>
-    <t>480564534</t>
-  </si>
-  <si>
-    <t>[[London Waterloo station|Waterloo]] in the centre of London.</t>
-  </si>
-  <si>
-    <t>181667862</t>
-  </si>
-  <si>
-    <t>{{</t>
-  </si>
-  <si>
-    <t>==References== {{reflist}}</t>
-  </si>
-  <si>
-    <t>392467433</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>Railway]] was also formed and built a line from</t>
-  </si>
-  <si>
-    <t>184072496</t>
-  </si>
-  <si>
-    <t>Basingstoke</t>
-  </si>
-  <si>
-    <t>Reading to Portsmouth via Basingstoke and Alton but the L&amp;SWR found a</t>
-  </si>
-  <si>
-    <t>189287121</t>
-  </si>
-  <si>
-    <t>The majority of passenger services are currently operated by [[South West Trains]]</t>
-  </si>
-  <si>
-    <t>9375284</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>use its own track but, after it fell into financial difficulties,</t>
-  </si>
-  <si>
-    <t>Special Air Service</t>
-  </si>
-  <si>
-    <t>5801</t>
-  </si>
-  <si>
-    <t>572817007</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>squadrons, one [[Free French]], one [[Sacred Band</t>
-  </si>
-  <si>
-    <t>350603320</t>
-  </si>
-  <si>
-    <t>Lewes</t>
-  </si>
-  <si>
-    <t>designed by Lieutenant [[Jock Lewes]] and based on the stylised</t>
-  </si>
-  <si>
-    <t>98628757</t>
-  </si>
-  <si>
-    <t>25 March 2010|publisher=Ministry of Defence|title=Why Join the Royal</t>
-  </si>
-  <si>
-    <t>351942186</t>
-  </si>
-  <si>
-    <t>| 'B' Squadron&lt;ref&gt;Fremont-Barnes, p.4&lt;/ref&gt;</t>
-  </si>
-  <si>
-    <t>Michael E|title=Encyclopaedia of Elite Forces in the Second World War</t>
-  </si>
-  <si>
-    <t>352362519</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>force to operate behind enemy lines in the [[North African Campaign]]</t>
-  </si>
-  <si>
-    <t>250401991</t>
-  </si>
-  <si>
-    <t>The_Holocaust</t>
-  </si>
-  <si>
-    <t>12323</t>
-  </si>
-  <si>
-    <t>481274320</t>
-  </si>
-  <si>
-    <t>Yad</t>
-  </si>
-  <si>
-    <t>1935|publisher=Yad Vashem}}&lt;/ref&gt;</t>
-  </si>
-  <si>
-    <t>137108568</t>
-  </si>
-  <si>
-    <t>1985, Holmes and Meier Publishers, Inc.</t>
-  </si>
-  <si>
-    <t>188536534</t>
-  </si>
-  <si>
-    <t>over</t>
-  </si>
-  <si>
-    <t>being set up, under whose rulings over 400,000 people were sterilized against</t>
-  </si>
-  <si>
-    <t>392832255</t>
-  </si>
-  <si>
-    <t>escape was impossible for most of them, they</t>
-  </si>
-  <si>
-    <t>170078762</t>
-  </si>
-  <si>
-    <t>Nazi</t>
-  </si>
-  <si>
-    <t>targeted by various deliberate actions by Nazi Germany and</t>
-  </si>
-  <si>
-    <t>287529321</t>
-  </si>
-  <si>
-    <t>party</t>
-  </si>
-  <si>
-    <t>the party's racism. Many leaders of German</t>
-  </si>
-  <si>
-    <t>226617182</t>
-  </si>
-  <si>
-    <t>Toshitsugu_Takamatsu</t>
-  </si>
-  <si>
-    <t>366</t>
-  </si>
-  <si>
-    <t>481179988</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>genealogy are also made older than they actually are.</t>
-  </si>
-  <si>
-    <t>460127310</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>(Chosui) Takamatsu, also known as Moko no Tora</t>
-  </si>
-  <si>
-    <t>135003903</t>
-  </si>
-  <si>
-    <t>historical</t>
-  </si>
-  <si>
-    <t>have a lineage related to the historical ninja in Japan</t>
-  </si>
-  <si>
-    <t>455245816</t>
-  </si>
-  <si>
-    <t>Prefecture{{citation needed|date=December 2011}}.</t>
-  </si>
-  <si>
-    <t>467046514</t>
-  </si>
-  <si>
-    <t>students. He was the bodyguard</t>
-  </si>
-  <si>
-    <t>139817862</t>
-  </si>
-  <si>
-    <t>Tokyo Times newspaper. He was well known in [[Japan]] as a grandmaster</t>
-  </si>
-  <si>
-    <t>198215859</t>
-  </si>
-  <si>
-    <t>Vladimir_Putin</t>
-  </si>
-  <si>
-    <t>8835</t>
-  </si>
-  <si>
-    <t>481565575</t>
-  </si>
-  <si>
-    <t>They have two daughters, Mariya Putina (born 28 April 1985 in</t>
-  </si>
-  <si>
-    <t>13710123</t>
-  </si>
-  <si>
-    <t>did</t>
-  </si>
-  <si>
-    <t>Boris Yeltsin, Putin did not choose ministers himself</t>
-  </si>
-  <si>
-    <t>376922596</t>
-  </si>
-  <si>
-    <t>Russian company [[Gazprom]] to halt its deliveries of [[natural gas]]</t>
-  </si>
-  <si>
-    <t>264976312</t>
-  </si>
-  <si>
-    <t>included</t>
-  </si>
-  <si>
-    <t>major infrastructure projects]] which he endorsed have included the construction of several major</t>
-  </si>
-  <si>
-    <t>452270016</t>
-  </si>
-  <si>
-    <t>[[Vladimir Gusinsky]], [[Mikhail Khodorkovsky</t>
-  </si>
-  <si>
-    <t>480200996</t>
-  </si>
-  <si>
-    <t>ports of the [[Baltic states]].</t>
-  </si>
-  <si>
-    <t>Wernher_von_Braun</t>
-  </si>
-  <si>
-    <t>2886</t>
-  </si>
-  <si>
-    <t>481374609</t>
-  </si>
-  <si>
-    <t>deceleration intended to commence only a few hundred kilometers above</t>
-  </si>
-  <si>
-    <t>331257357</t>
-  </si>
-  <si>
-    <t>glacial</t>
-  </si>
-  <si>
-    <t>the barren Antarctic terrain like the glacial dry valleys to test the equipment</t>
-  </si>
-  <si>
-    <t>181562429</t>
-  </si>
-  <si>
-    <t>extent</t>
-  </si>
-  <si>
-    <t>Von Braun continued his work to the extent possible, which included</t>
-  </si>
-  <si>
-    <t>312133982</t>
-  </si>
-  <si>
-    <t>picked labor slaves from the [[Buchenwald concentration camp]], who, he admitted 25 years</t>
-  </si>
-  <si>
-    <t>39337246</t>
-  </si>
-  <si>
-    <t>should</t>
-  </si>
-  <si>
-    <t>with unmistakable harshness that I should mind my own business, or find myself</t>
-  </si>
-  <si>
-    <t>60940361</t>
-  </si>
-  <si>
-    <t>=Merk, Otto|title=The Birth of the Missile:The Secrets of Peenemünde</t>
-  </si>
-  <si>
-    <t>278165210</t>
-  </si>
-  <si>
-    <t>carpenter</t>
-  </si>
-  <si>
-    <t>(τέκτων in Greek), usually understood to mean [[carpenter]].</t>
-  </si>
-  <si>
-    <t>78808950</t>
-  </si>
-  <si>
-    <t>sensationalised</t>
-  </si>
-  <si>
-    <t>event at first suppressed, then sensationalised, by the world media</t>
-  </si>
-  <si>
-    <t>46525</t>
-  </si>
-  <si>
-    <t>west</t>
-  </si>
-  <si>
-    <t>(publisher)|West Publishing]]</t>
-  </si>
-  <si>
-    <t>237553561</t>
-  </si>
-  <si>
-    <t>electrolysis</t>
-  </si>
-  <si>
-    <t>The electrolysis of chloride solutions</t>
-  </si>
-  <si>
-    <t>2548818</t>
+    <t xml:space="preserve">448599226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Hues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">462751809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he was one of the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251139604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[circumnavigation|circumnavigated]] the globe with Cavendish between 1586 and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">printer to the Queen's Most Excellent Majestie|year=1589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cui solator accessit in arca Londinensi. Quo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generally believed to be an error as no such person was known</t>
+  </si>
+  <si>
+    <t xml:space="preserve">critiqued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page=123|oclc=1981442}}, critiqued by Shirley, ''Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">292186344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturn's_moons_in_fiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">566618655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survivors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find possible survivors transmitting a distress signal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">506114944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the Librarium Daemonicum, a repositary of the knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138184340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* "Outpost of the Eons" by Dirk Wylie (pseudonym of Joseph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">419171504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sourcebook ''GURPS Space: Terradyne'', the Terradyne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">477980732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[Image:Dione color south.jpg|right|80px|Dione]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135546415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of human colonization and mining called "M-Base".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127975759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergei Korolev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">479371650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergei Korolev.jpg|Image of 1969, 10k stamp.]][</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140290515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gagarin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[http://astrotalkuk.org/2011/07/25/yuri-gagarin-statue-in-london/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">444607919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality checks. It was successfully launched on 3 November and the dog was placed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14531720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vladimirov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonid Vladimirov related the following description of Korolev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14836512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">world's first space walk. The flight very nearly ended in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yegorov and Feoktistov, was launched</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South_Western_main_line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480564534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[London Waterloo station|Waterloo]] in the centre of London.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181667862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">==References== {{reflist}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">392467433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Railway]] was also formed and built a line from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184072496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basingstoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading to Portsmouth via Basingstoke and Alton but the L&amp;SWR found a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189287121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The majority of passenger services are currently operated by [[South West Trains]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9375284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use its own track but, after it fell into financial difficulties,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special Air Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">572817007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">squadrons, one [[Free French]], one [[Sacred Band</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350603320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lewes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">designed by Lieutenant [[Jock Lewes]] and based on the stylised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98628757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 March 2010|publisher=Ministry of Defence|title=Why Join the Royal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">351942186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| 'B' Squadron&lt;ref&gt;Fremont-Barnes, p.4&lt;/ref&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael E|title=Encyclopaedia of Elite Forces in the Second World War</t>
+  </si>
+  <si>
+    <t xml:space="preserve">352362519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">behind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">force to operate behind enemy lines in the [[North African Campaign]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250401991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The_Holocaust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">481274320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1935|publisher=Yad Vashem}}&lt;/ref&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137108568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1985, Holmes and Meier Publishers, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188536534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">being set up, under whose rulings over 400,000 people were sterilized against</t>
+  </si>
+  <si>
+    <t xml:space="preserve">392832255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">escape was impossible for most of them, they</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170078762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">targeted by various deliberate actions by Nazi Germany and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287529321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the party's racism. Many leaders of German</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226617182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toshitsugu_Takamatsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">481179988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">also</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genealogy are also made older than they actually are.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">460127310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Chosui) Takamatsu, also known as Moko no Tora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135003903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have a lineage related to the historical ninja in Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">455245816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefecture{{citation needed|date=December 2011}}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">467046514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">students. He was the bodyguard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139817862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokyo Times newspaper. He was well known in [[Japan]] as a grandmaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198215859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vladimir_Putin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">481565575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They have two daughters, Mariya Putina (born 28 April 1985 in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13710123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">did</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boris Yeltsin, Putin did not choose ministers himself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">376922596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian company [[Gazprom]] to halt its deliveries of [[natural gas]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">264976312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">included</t>
+  </si>
+  <si>
+    <t xml:space="preserve">major infrastructure projects]] which he endorsed have included the construction of several major</t>
+  </si>
+  <si>
+    <t xml:space="preserve">452270016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[Vladimir Gusinsky]], [[Mikhail Khodorkovsky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">480200996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ports of the [[Baltic states]].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wernher_von_Braun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">481374609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deceleration intended to commence only a few hundred kilometers above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">331257357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glacial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the barren Antarctic terrain like the glacial dry valleys to test the equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181562429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Von Braun continued his work to the extent possible, which included</t>
+  </si>
+  <si>
+    <t xml:space="preserve">312133982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">picked labor slaves from the [[Buchenwald concentration camp]], who, he admitted 25 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39337246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with unmistakable harshness that I should mind my own business, or find myself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60940361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=Merk, Otto|title=The Birth of the Missile:The Secrets of Peenemünde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">278165210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carpenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(τέκτων in Greek), usually understood to mean [[carpenter]].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78808950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensationalised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event at first suppressed, then sensationalised, by the world media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">west</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(publisher)|West Publishing]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237553561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electrolysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The electrolysis of chloride solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2548818</t>
   </si>
 </sst>
 </file>
@@ -2311,7 +2322,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="8">
@@ -2582,28 +2593,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:241"/>
+  <dimension ref="A1:AMJ241"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A206" activeCellId="0" sqref="A206"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A147" activeCellId="0" sqref="A147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.280612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8061224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2295918367347"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7448979591837"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.0714285714286"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.015306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.2295918367347"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.0714285714286"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="150.811224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="150.81"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8679,7 +8690,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
